--- a/Results/Act/RR/Results_world_act_RR_hist.xlsx
+++ b/Results/Act/RR/Results_world_act_RR_hist.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285202032373</v>
+        <v>262.0285184034511</v>
       </c>
       <c r="E2">
-        <v>302.5764809233871</v>
+        <v>302.576477717402</v>
       </c>
       <c r="F2">
-        <v>500.2094999256925</v>
+        <v>500.2094937315152</v>
       </c>
       <c r="G2">
-        <v>370.5936620803161</v>
+        <v>370.5936507657514</v>
       </c>
       <c r="H2">
-        <v>948.9860840041433</v>
+        <v>948.9860670523387</v>
       </c>
       <c r="I2">
-        <v>545.2803004229604</v>
+        <v>545.2802703363938</v>
       </c>
       <c r="J2">
-        <v>608.507780581643</v>
+        <v>608.5077251083422</v>
       </c>
       <c r="K2">
-        <v>699.942622595333</v>
+        <v>699.9425113944372</v>
       </c>
       <c r="L2">
-        <v>557.9724224487358</v>
+        <v>557.9721968688002</v>
       </c>
       <c r="M2">
-        <v>684.8464267725159</v>
+        <v>684.8458683047368</v>
       </c>
       <c r="N2">
-        <v>348.2186642720018</v>
+        <v>348.2171352838275</v>
       </c>
       <c r="O2">
-        <v>388.0287673460033</v>
+        <v>388.0251102273497</v>
       </c>
       <c r="P2">
-        <v>780.6073763336649</v>
+        <v>780.5979142164795</v>
       </c>
       <c r="Q2">
-        <v>797.4406751905335</v>
+        <v>797.4208164294048</v>
       </c>
       <c r="R2">
-        <v>814.9699213820818</v>
+        <v>814.9395463744353</v>
       </c>
       <c r="S2">
-        <v>1999.447621390871</v>
+        <v>1999.419349174561</v>
       </c>
       <c r="T2">
-        <v>1991.535988069665</v>
+        <v>1991.51952225246</v>
       </c>
       <c r="U2">
-        <v>1994.145198445622</v>
+        <v>1994.131794988441</v>
       </c>
       <c r="V2">
-        <v>2009.586013460216</v>
+        <v>2009.565084481686</v>
       </c>
       <c r="W2">
-        <v>2026.499246425065</v>
+        <v>2026.469718974883</v>
       </c>
       <c r="X2">
-        <v>1873.97957114302</v>
+        <v>1873.938260914215</v>
       </c>
       <c r="Y2">
-        <v>1898.194971409407</v>
+        <v>1898.138506073064</v>
       </c>
       <c r="Z2">
-        <v>1916.28984747752</v>
+        <v>1916.223368454001</v>
       </c>
       <c r="AA2">
-        <v>1937.940777281595</v>
+        <v>1937.861343036873</v>
       </c>
       <c r="AB2">
-        <v>1998.609991641724</v>
+        <v>1998.485064117554</v>
       </c>
       <c r="AC2">
-        <v>749.5193840407976</v>
+        <v>749.3184471285144</v>
       </c>
       <c r="AD2">
-        <v>859.7068389923752</v>
+        <v>859.4193986676687</v>
       </c>
       <c r="AE2">
-        <v>966.4289632890997</v>
+        <v>966.0580535575029</v>
       </c>
       <c r="AF2">
-        <v>957.2747968649796</v>
+        <v>956.9173444553755</v>
       </c>
       <c r="AG2">
-        <v>917.5312752505716</v>
+        <v>917.2131035705557</v>
       </c>
       <c r="AH2">
-        <v>727.6626095319128</v>
+        <v>727.3534655360984</v>
       </c>
       <c r="AI2">
-        <v>702.6725629459866</v>
+        <v>702.3912576065931</v>
       </c>
       <c r="AJ2">
-        <v>670.5296116451027</v>
+        <v>670.2825541780678</v>
       </c>
       <c r="AK2">
-        <v>649.0371317023415</v>
+        <v>648.8158676334045</v>
       </c>
       <c r="AL2">
-        <v>737.3778314138315</v>
+        <v>737.0910897796194</v>
       </c>
       <c r="AM2">
-        <v>935.7025049913922</v>
+        <v>935.2589082102712</v>
       </c>
       <c r="AN2">
-        <v>1154.140313610231</v>
+        <v>1153.523404861627</v>
       </c>
       <c r="AO2">
-        <v>1464.564914110413</v>
+        <v>1463.697981582617</v>
       </c>
       <c r="AP2">
-        <v>1862.725263681373</v>
+        <v>1861.534964683922</v>
       </c>
       <c r="AQ2">
-        <v>2067.662937141728</v>
+        <v>2066.310675254947</v>
       </c>
       <c r="AR2">
-        <v>2088.912502197642</v>
+        <v>2087.551670178408</v>
       </c>
       <c r="AS2">
-        <v>2087.434874584189</v>
+        <v>2086.083809189288</v>
       </c>
       <c r="AT2">
-        <v>2064.477488409122</v>
+        <v>2063.153269559384</v>
       </c>
       <c r="AU2">
-        <v>2023.39337791185</v>
+        <v>2022.110123961084</v>
       </c>
       <c r="AV2">
-        <v>2009.233262893034</v>
+        <v>2007.976051173363</v>
       </c>
       <c r="AW2">
-        <v>1981.476774159908</v>
+        <v>1980.250161268977</v>
       </c>
       <c r="AX2">
-        <v>2085.943540061691</v>
+        <v>2084.813766251633</v>
       </c>
       <c r="AY2">
-        <v>1822.679816590253</v>
+        <v>1821.773364453686</v>
       </c>
       <c r="AZ2">
-        <v>1461.914561100567</v>
+        <v>1461.312404851243</v>
       </c>
       <c r="BA2">
-        <v>1309.110190001496</v>
+        <v>1308.638061724038</v>
       </c>
       <c r="BB2">
-        <v>1302.041706883273</v>
+        <v>1301.555808817641</v>
       </c>
       <c r="BC2">
-        <v>1281.07139832723</v>
+        <v>1280.605898888013</v>
       </c>
       <c r="BD2">
-        <v>1212.481857382721</v>
+        <v>1212.077009378911</v>
       </c>
       <c r="BE2">
-        <v>1130.885076003956</v>
+        <v>1130.552413362454</v>
       </c>
       <c r="BF2">
-        <v>1083.920056260933</v>
+        <v>1083.631389133755</v>
       </c>
       <c r="BG2">
-        <v>1056.144534450785</v>
+        <v>1055.862971609707</v>
       </c>
       <c r="BH2">
-        <v>1104.648956110858</v>
+        <v>1104.333651088296</v>
       </c>
       <c r="BI2">
-        <v>1229.794508586507</v>
+        <v>1229.38219287434</v>
       </c>
       <c r="BJ2">
-        <v>1430.70155965814</v>
+        <v>1430.129586655711</v>
       </c>
       <c r="BK2">
-        <v>1683.309973060686</v>
+        <v>1682.535642200454</v>
       </c>
       <c r="BL2">
-        <v>1944.467442461146</v>
+        <v>1943.467628610105</v>
       </c>
       <c r="BM2">
-        <v>2199.060017804668</v>
+        <v>2197.857037367811</v>
       </c>
       <c r="BN2">
-        <v>2351.339535784355</v>
+        <v>2350.019031335</v>
       </c>
       <c r="BO2">
-        <v>2396.931131337208</v>
+        <v>2395.582275845659</v>
       </c>
       <c r="BP2">
-        <v>2392.407333817707</v>
+        <v>2391.071870411548</v>
       </c>
       <c r="BQ2">
-        <v>2358.452468684463</v>
+        <v>2357.143560300943</v>
       </c>
       <c r="BR2">
-        <v>2332.618745286035</v>
+        <v>2331.340826434585</v>
       </c>
       <c r="BS2">
-        <v>2307.250433972793</v>
+        <v>2306.002695694771</v>
       </c>
       <c r="BT2">
-        <v>2272.3197575604</v>
+        <v>2271.109741335263</v>
       </c>
       <c r="BU2">
-        <v>2188.016981024347</v>
+        <v>2186.885509785121</v>
       </c>
       <c r="BV2">
-        <v>1992.643575091357</v>
+        <v>1991.672150231059</v>
       </c>
       <c r="BW2">
-        <v>1783.344752321411</v>
+        <v>1782.555875951441</v>
       </c>
       <c r="BX2">
-        <v>1658.306140499431</v>
+        <v>1657.628924895234</v>
       </c>
       <c r="BY2">
-        <v>1610.619987484589</v>
+        <v>1609.989384512058</v>
       </c>
       <c r="BZ2">
-        <v>1574.465310701203</v>
+        <v>1573.87142285613</v>
       </c>
       <c r="CA2">
-        <v>1509.714888587753</v>
+        <v>1509.170074516072</v>
       </c>
       <c r="CB2">
-        <v>1461.459516928217</v>
+        <v>1460.961865340927</v>
       </c>
       <c r="CC2">
-        <v>1440.903758853472</v>
+        <v>1440.43024057695</v>
       </c>
       <c r="CD2">
-        <v>1465.98523714735</v>
+        <v>1465.497930446688</v>
       </c>
       <c r="CE2">
-        <v>1552.477268690863</v>
+        <v>1551.925155486261</v>
       </c>
       <c r="CF2">
-        <v>1689.616261775963</v>
+        <v>1688.944518138659</v>
       </c>
       <c r="CG2">
-        <v>1896.128072078227</v>
+        <v>1895.292480955234</v>
       </c>
       <c r="CH2">
-        <v>2130.285864467734</v>
+        <v>2129.263693219189</v>
       </c>
       <c r="CI2">
-        <v>2357.733436624745</v>
+        <v>2356.530634166462</v>
       </c>
       <c r="CJ2">
-        <v>2542.417566306566</v>
+        <v>2541.070171647829</v>
       </c>
       <c r="CK2">
-        <v>2633.535545333726</v>
+        <v>2632.104245031508</v>
       </c>
       <c r="CL2">
-        <v>2674.302115766278</v>
+        <v>2672.847439140884</v>
       </c>
       <c r="CM2">
-        <v>2669.908516597779</v>
+        <v>2668.468280088894</v>
       </c>
       <c r="CN2">
-        <v>2645.367592805048</v>
+        <v>2643.958618902758</v>
       </c>
       <c r="CO2">
-        <v>2612.82785964697</v>
+        <v>2611.456744606297</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907216154162</v>
+        <v>16.490721496882</v>
       </c>
       <c r="E3">
-        <v>24.70205632449466</v>
+        <v>24.70205604171986</v>
       </c>
       <c r="F3">
-        <v>42.41225877385464</v>
+        <v>42.41225822803085</v>
       </c>
       <c r="G3">
-        <v>30.64991620832442</v>
+        <v>30.6499152145837</v>
       </c>
       <c r="H3">
-        <v>83.24217779385444</v>
+        <v>83.24217632004714</v>
       </c>
       <c r="I3">
-        <v>46.64008052147047</v>
+        <v>46.64007797783106</v>
       </c>
       <c r="J3">
-        <v>52.18564070846007</v>
+        <v>52.18563633010488</v>
       </c>
       <c r="K3">
-        <v>60.14812982197849</v>
+        <v>60.14812224385006</v>
       </c>
       <c r="L3">
-        <v>47.29812228289576</v>
+        <v>47.29811041946536</v>
       </c>
       <c r="M3">
-        <v>58.6112968059375</v>
+        <v>58.61127633557575</v>
       </c>
       <c r="N3">
-        <v>27.78894200656514</v>
+        <v>27.78890421682083</v>
       </c>
       <c r="O3">
-        <v>31.72752907738325</v>
+        <v>31.72746554977741</v>
       </c>
       <c r="P3">
-        <v>67.12698734888409</v>
+        <v>67.126864649168</v>
       </c>
       <c r="Q3">
-        <v>68.57260287556433</v>
+        <v>68.57242769586358</v>
       </c>
       <c r="R3">
-        <v>70.08212853906808</v>
+        <v>70.08194091425196</v>
       </c>
       <c r="S3">
-        <v>177.3170733226531</v>
+        <v>177.3169063211728</v>
       </c>
       <c r="T3">
-        <v>176.482781643203</v>
+        <v>176.4826345040006</v>
       </c>
       <c r="U3">
-        <v>176.6094224776119</v>
+        <v>176.6092946941817</v>
       </c>
       <c r="V3">
-        <v>177.9081865397216</v>
+        <v>177.9080856509983</v>
       </c>
       <c r="W3">
-        <v>179.3414465610974</v>
+        <v>179.3413841660082</v>
       </c>
       <c r="X3">
-        <v>165.4237225942346</v>
+        <v>165.4236525638946</v>
       </c>
       <c r="Y3">
-        <v>167.5282956987257</v>
+        <v>167.5282164672555</v>
       </c>
       <c r="Z3">
-        <v>169.0738794420963</v>
+        <v>169.0737929965332</v>
       </c>
       <c r="AA3">
-        <v>170.944319535574</v>
+        <v>170.9442258863566</v>
       </c>
       <c r="AB3">
-        <v>176.378980972689</v>
+        <v>176.378876769218</v>
       </c>
       <c r="AC3">
-        <v>63.14154774762857</v>
+        <v>63.14143078088068</v>
       </c>
       <c r="AD3">
-        <v>73.0971267457801</v>
+        <v>73.09699341746011</v>
       </c>
       <c r="AE3">
-        <v>82.73588712927813</v>
+        <v>82.7357345483186</v>
       </c>
       <c r="AF3">
-        <v>81.78899850580895</v>
+        <v>81.78882889024261</v>
       </c>
       <c r="AG3">
-        <v>78.04737179102644</v>
+        <v>78.04718224701905</v>
       </c>
       <c r="AH3">
-        <v>60.72572096706516</v>
+        <v>60.72550252504862</v>
       </c>
       <c r="AI3">
-        <v>58.3269729207237</v>
+        <v>58.32671314757486</v>
       </c>
       <c r="AJ3">
-        <v>55.27349249858865</v>
+        <v>55.27317560888937</v>
       </c>
       <c r="AK3">
-        <v>53.19125302731083</v>
+        <v>53.19085748039748</v>
       </c>
       <c r="AL3">
-        <v>61.14036682780185</v>
+        <v>61.13986262437439</v>
       </c>
       <c r="AM3">
-        <v>79.13443156188649</v>
+        <v>79.13379299352648</v>
       </c>
       <c r="AN3">
-        <v>98.96486389744621</v>
+        <v>98.96407798577548</v>
       </c>
       <c r="AO3">
-        <v>127.1964842913617</v>
+        <v>127.1955225602612</v>
       </c>
       <c r="AP3">
-        <v>163.4414042512451</v>
+        <v>163.4402438506976</v>
       </c>
       <c r="AQ3">
-        <v>182.0387680865969</v>
+        <v>182.0374634763832</v>
       </c>
       <c r="AR3">
-        <v>183.8565033287166</v>
+        <v>183.8551124367383</v>
       </c>
       <c r="AS3">
-        <v>183.5997791588493</v>
+        <v>183.5983235903722</v>
       </c>
       <c r="AT3">
-        <v>181.3828807200136</v>
+        <v>181.3813858530097</v>
       </c>
       <c r="AU3">
-        <v>177.5123066912152</v>
+        <v>177.5107999442371</v>
       </c>
       <c r="AV3">
-        <v>176.0906416204249</v>
+        <v>176.0891432067907</v>
       </c>
       <c r="AW3">
-        <v>173.427690105594</v>
+        <v>173.4262270892911</v>
       </c>
       <c r="AX3">
-        <v>182.7003091493297</v>
+        <v>182.69892745938</v>
       </c>
       <c r="AY3">
-        <v>158.5348410930466</v>
+        <v>158.5336030946535</v>
       </c>
       <c r="AZ3">
-        <v>125.4654639828412</v>
+        <v>125.4644114024011</v>
       </c>
       <c r="BA3">
-        <v>111.3905863217078</v>
+        <v>111.3896705369742</v>
       </c>
       <c r="BB3">
-        <v>110.6337948739354</v>
+        <v>110.6329653622369</v>
       </c>
       <c r="BC3">
-        <v>108.5872342922389</v>
+        <v>108.5864876187308</v>
       </c>
       <c r="BD3">
-        <v>102.1901485967262</v>
+        <v>102.1894818878332</v>
       </c>
       <c r="BE3">
-        <v>94.60372044870395</v>
+        <v>94.60312119591445</v>
       </c>
       <c r="BF3">
-        <v>90.17861728336773</v>
+        <v>90.17805535692079</v>
       </c>
       <c r="BG3">
-        <v>87.51379103380665</v>
+        <v>87.51323184586069</v>
       </c>
       <c r="BH3">
-        <v>91.79570494283739</v>
+        <v>91.79511712764966</v>
       </c>
       <c r="BI3">
-        <v>103.0765757081859</v>
+        <v>103.0759278088637</v>
       </c>
       <c r="BJ3">
-        <v>121.2763528308918</v>
+        <v>121.2756171525646</v>
       </c>
       <c r="BK3">
-        <v>144.1975132386681</v>
+        <v>144.1966679243798</v>
       </c>
       <c r="BL3">
-        <v>167.905586654282</v>
+        <v>167.9046171846336</v>
       </c>
       <c r="BM3">
-        <v>190.9996520829343</v>
+        <v>190.9985613094751</v>
       </c>
       <c r="BN3">
-        <v>204.7489172003835</v>
+        <v>204.747730861352</v>
       </c>
       <c r="BO3">
-        <v>208.7540593729651</v>
+        <v>208.752807365664</v>
       </c>
       <c r="BP3">
-        <v>208.182334176437</v>
+        <v>208.1810343861733</v>
       </c>
       <c r="BQ3">
-        <v>204.9214494513998</v>
+        <v>204.9201130771714</v>
       </c>
       <c r="BR3">
-        <v>202.3932445331295</v>
+        <v>202.3918819730835</v>
       </c>
       <c r="BS3">
-        <v>199.9084459724994</v>
+        <v>199.9070678766878</v>
       </c>
       <c r="BT3">
-        <v>196.5513113798269</v>
+        <v>196.5499327597137</v>
       </c>
       <c r="BU3">
-        <v>188.6859231214253</v>
+        <v>188.6845704624241</v>
       </c>
       <c r="BV3">
-        <v>170.6767532786053</v>
+        <v>170.6754652471033</v>
       </c>
       <c r="BW3">
-        <v>151.3869996396531</v>
+        <v>151.3857935431905</v>
       </c>
       <c r="BX3">
-        <v>139.7935945844096</v>
+        <v>139.7924537780395</v>
       </c>
       <c r="BY3">
-        <v>135.2652521718099</v>
+        <v>135.2641571208593</v>
       </c>
       <c r="BZ3">
-        <v>131.7900101248373</v>
+        <v>131.7889556388097</v>
       </c>
       <c r="CA3">
-        <v>125.702497042471</v>
+        <v>125.7014838700736</v>
       </c>
       <c r="CB3">
-        <v>121.1111843089265</v>
+        <v>121.1102076721679</v>
       </c>
       <c r="CC3">
-        <v>119.0493148154485</v>
+        <v>119.0483614264442</v>
       </c>
       <c r="CD3">
-        <v>121.1551300172503</v>
+        <v>121.1541810814403</v>
       </c>
       <c r="CE3">
-        <v>128.8693502293802</v>
+        <v>128.8683840020805</v>
       </c>
       <c r="CF3">
-        <v>141.2086735749186</v>
+        <v>141.207668557943</v>
       </c>
       <c r="CG3">
-        <v>159.8723959434512</v>
+        <v>159.8713338798143</v>
       </c>
       <c r="CH3">
-        <v>181.0606602004258</v>
+        <v>181.0595283661701</v>
       </c>
       <c r="CI3">
-        <v>201.6355319667774</v>
+        <v>201.634326125484</v>
       </c>
       <c r="CJ3">
-        <v>218.3041862437121</v>
+        <v>218.302912449624</v>
       </c>
       <c r="CK3">
-        <v>226.431282289104</v>
+        <v>226.4299559381263</v>
       </c>
       <c r="CL3">
-        <v>229.9439287635778</v>
+        <v>229.9425670941785</v>
       </c>
       <c r="CM3">
-        <v>229.3319058407701</v>
+        <v>229.3305209164093</v>
       </c>
       <c r="CN3">
-        <v>226.879900094635</v>
+        <v>226.878499245783</v>
       </c>
       <c r="CO3">
-        <v>223.6976331668523</v>
+        <v>223.6962222691025</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474439.87974429</v>
+        <v>26474419.10068802</v>
       </c>
       <c r="E4">
-        <v>26423811.35428678</v>
+        <v>26423774.34845198</v>
       </c>
       <c r="F4">
-        <v>29154673.83140643</v>
+        <v>29154602.39919744</v>
       </c>
       <c r="G4">
-        <v>29290581.73871829</v>
+        <v>29290451.67599275</v>
       </c>
       <c r="H4">
-        <v>26636847.2617054</v>
+        <v>26636654.31913443</v>
       </c>
       <c r="I4">
-        <v>26167279.61191797</v>
+        <v>26166946.39943056</v>
       </c>
       <c r="J4">
-        <v>28881105.57049803</v>
+        <v>28880531.12899355</v>
       </c>
       <c r="K4">
-        <v>32706191.19389308</v>
+        <v>32705193.51584759</v>
       </c>
       <c r="L4">
-        <v>32437267.97554417</v>
+        <v>32435695.15518427</v>
       </c>
       <c r="M4">
-        <v>34535036.5145163</v>
+        <v>34532288.58680022</v>
       </c>
       <c r="N4">
-        <v>37371176.93999744</v>
+        <v>37366011.15541844</v>
       </c>
       <c r="O4">
-        <v>34609588.85651444</v>
+        <v>34600728.30700402</v>
       </c>
       <c r="P4">
-        <v>37534774.41892045</v>
+        <v>37517386.92176636</v>
       </c>
       <c r="Q4">
-        <v>38857319.62306772</v>
+        <v>38828850.80911663</v>
       </c>
       <c r="R4">
-        <v>40172266.62064841</v>
+        <v>40136962.26334033</v>
       </c>
       <c r="S4">
-        <v>43524660.12365495</v>
+        <v>43487516.9245834</v>
       </c>
       <c r="T4">
-        <v>44967235.89893108</v>
+        <v>44927019.70221924</v>
       </c>
       <c r="U4">
-        <v>46413235.40332428</v>
+        <v>46367626.20349593</v>
       </c>
       <c r="V4">
-        <v>47860647.90634772</v>
+        <v>47808494.19133721</v>
       </c>
       <c r="W4">
-        <v>49307969.05108082</v>
+        <v>49249129.28483271</v>
       </c>
       <c r="X4">
-        <v>50485194.35138876</v>
+        <v>50419163.56305536</v>
       </c>
       <c r="Y4">
-        <v>51839042.91617008</v>
+        <v>51764342.01417334</v>
       </c>
       <c r="Z4">
-        <v>53189569.86789995</v>
+        <v>53108079.85869302</v>
       </c>
       <c r="AA4">
-        <v>54539737.13616467</v>
+        <v>54451470.25823949</v>
       </c>
       <c r="AB4">
-        <v>55894220.43545947</v>
+        <v>55796011.88076303</v>
       </c>
       <c r="AC4">
-        <v>55038937.47591078</v>
+        <v>54928704.54978649</v>
       </c>
       <c r="AD4">
-        <v>56404423.23171148</v>
+        <v>56278773.02069536</v>
       </c>
       <c r="AE4">
-        <v>57772707.5423857</v>
+        <v>57628921.35284009</v>
       </c>
       <c r="AF4">
-        <v>59136512.84091261</v>
+        <v>58976709.8896409</v>
       </c>
       <c r="AG4">
-        <v>60501701.55102077</v>
+        <v>60323175.40708433</v>
       </c>
       <c r="AH4">
-        <v>61514566.73955744</v>
+        <v>61308873.96394449</v>
       </c>
       <c r="AI4">
-        <v>62926631.89714467</v>
+        <v>62682060.73944838</v>
       </c>
       <c r="AJ4">
-        <v>64357679.12383437</v>
+        <v>64059353.70102868</v>
       </c>
       <c r="AK4">
-        <v>65816282.27448512</v>
+        <v>65443887.09816343</v>
       </c>
       <c r="AL4">
-        <v>67314541.38129722</v>
+        <v>66839761.45052585</v>
       </c>
       <c r="AM4">
-        <v>68819083.38424034</v>
+        <v>68217656.44363019</v>
       </c>
       <c r="AN4">
-        <v>70339288.89456731</v>
+        <v>69598980.74080111</v>
       </c>
       <c r="AO4">
-        <v>71900895.69788963</v>
+        <v>70994799.81018661</v>
       </c>
       <c r="AP4">
-        <v>73497472.77031548</v>
+        <v>72403982.65835778</v>
       </c>
       <c r="AQ4">
-        <v>75012147.59947333</v>
+        <v>73782745.55707443</v>
       </c>
       <c r="AR4">
-        <v>76428063.5263226</v>
+        <v>75117485.15206741</v>
       </c>
       <c r="AS4">
-        <v>77818725.09788555</v>
+        <v>76447328.81549072</v>
       </c>
       <c r="AT4">
-        <v>79180869.9754352</v>
+        <v>77772559.1934194</v>
       </c>
       <c r="AU4">
-        <v>80513234.39984442</v>
+        <v>79093825.52538571</v>
       </c>
       <c r="AV4">
-        <v>82028181.82776859</v>
+        <v>80616668.7491236</v>
       </c>
       <c r="AW4">
-        <v>83459754.10706897</v>
+        <v>82081610.81785059</v>
       </c>
       <c r="AX4">
-        <v>84885783.75222234</v>
+        <v>83584336.22262804</v>
       </c>
       <c r="AY4">
-        <v>86114945.85151286</v>
+        <v>84949083.39177743</v>
       </c>
       <c r="AZ4">
-        <v>87286580.51919314</v>
+        <v>86295699.43460667</v>
       </c>
       <c r="BA4">
-        <v>88537555.33887047</v>
+        <v>87675636.67492184</v>
       </c>
       <c r="BB4">
-        <v>89914058.83233525</v>
+        <v>89133316.83927406</v>
       </c>
       <c r="BC4">
-        <v>91335734.94608648</v>
+        <v>90632945.35779279</v>
       </c>
       <c r="BD4">
-        <v>92756485.46091294</v>
+        <v>92128981.65150052</v>
       </c>
       <c r="BE4">
-        <v>94188582.76519172</v>
+        <v>93624607.98909611</v>
       </c>
       <c r="BF4">
-        <v>95657774.13010681</v>
+        <v>95128921.75712925</v>
       </c>
       <c r="BG4">
-        <v>97204605.53418469</v>
+        <v>96678259.87244968</v>
       </c>
       <c r="BH4">
-        <v>98830976.37080967</v>
+        <v>98277568.04991323</v>
       </c>
       <c r="BI4">
-        <v>100496161.165534</v>
+        <v>99886026.70255776</v>
       </c>
       <c r="BJ4">
-        <v>102195752.6088743</v>
+        <v>101502773.1431575</v>
       </c>
       <c r="BK4">
-        <v>103922724.6146625</v>
+        <v>103126286.119827</v>
       </c>
       <c r="BL4">
-        <v>105687020.9790295</v>
+        <v>104773431.7027442</v>
       </c>
       <c r="BM4">
-        <v>107475477.5890231</v>
+        <v>106447457.3262782</v>
       </c>
       <c r="BN4">
-        <v>109223224.3770097</v>
+        <v>108105121.8485365</v>
       </c>
       <c r="BO4">
-        <v>110925392.1099962</v>
+        <v>109745475.143683</v>
       </c>
       <c r="BP4">
-        <v>112601985.1309537</v>
+        <v>111377148.7704475</v>
       </c>
       <c r="BQ4">
-        <v>114351634.1084109</v>
+        <v>113092438.8190052</v>
       </c>
       <c r="BR4">
-        <v>116111311.8790849</v>
+        <v>114827551.4433166</v>
       </c>
       <c r="BS4">
-        <v>117859656.2865302</v>
+        <v>116561355.6206626</v>
       </c>
       <c r="BT4">
-        <v>119590387.3677865</v>
+        <v>118291691.4083737</v>
       </c>
       <c r="BU4">
-        <v>121285932.0361169</v>
+        <v>120011834.8328568</v>
       </c>
       <c r="BV4">
-        <v>122984589.1765818</v>
+        <v>121771605.3070413</v>
       </c>
       <c r="BW4">
-        <v>124683138.7008304</v>
+        <v>123547586.8788971</v>
       </c>
       <c r="BX4">
-        <v>126412399.8286726</v>
+        <v>125338495.7330481</v>
       </c>
       <c r="BY4">
-        <v>128175982.8058475</v>
+        <v>127145218.4674128</v>
       </c>
       <c r="BZ4">
-        <v>129950432.8193068</v>
+        <v>128957877.3796586</v>
       </c>
       <c r="CA4">
-        <v>131787835.8655626</v>
+        <v>130834188.3793049</v>
       </c>
       <c r="CB4">
-        <v>133654587.7391724</v>
+        <v>132735334.0721236</v>
       </c>
       <c r="CC4">
-        <v>135540141.6588288</v>
+        <v>134642732.4219025</v>
       </c>
       <c r="CD4">
-        <v>137451739.7352042</v>
+        <v>136558428.6069562</v>
       </c>
       <c r="CE4">
-        <v>139392889.1822692</v>
+        <v>138483147.9499978</v>
       </c>
       <c r="CF4">
-        <v>141427303.3915274</v>
+        <v>140480841.7455364</v>
       </c>
       <c r="CG4">
-        <v>143510155.9915772</v>
+        <v>142509750.1995138</v>
       </c>
       <c r="CH4">
-        <v>145608070.5041571</v>
+        <v>144541727.6352226</v>
       </c>
       <c r="CI4">
-        <v>147708492.2029215</v>
+        <v>146572241.6288168</v>
       </c>
       <c r="CJ4">
-        <v>149796241.7546225</v>
+        <v>148595838.4084507</v>
       </c>
       <c r="CK4">
-        <v>151907618.6032751</v>
+        <v>150657644.1447937</v>
       </c>
       <c r="CL4">
-        <v>154025148.7546894</v>
+        <v>152741918.8149469</v>
       </c>
       <c r="CM4">
-        <v>156123478.2376859</v>
+        <v>154818405.6531201</v>
       </c>
       <c r="CN4">
-        <v>158210843.9563891</v>
+        <v>156890857.2112825</v>
       </c>
       <c r="CO4">
-        <v>160290306.9424838</v>
+        <v>158960951.2137501</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694916.105421299</v>
+        <v>1694915.880510496</v>
       </c>
       <c r="E5">
-        <v>1137648.196582253</v>
+        <v>1137647.796047431</v>
       </c>
       <c r="F5">
-        <v>570533.791081716</v>
+        <v>570533.018117391</v>
       </c>
       <c r="G5">
-        <v>351157.8996511776</v>
+        <v>351156.4933158077</v>
       </c>
       <c r="H5">
-        <v>329572.1210571148</v>
+        <v>329570.0392823215</v>
       </c>
       <c r="I5">
-        <v>234960.1549717684</v>
+        <v>234956.5796820118</v>
       </c>
       <c r="J5">
-        <v>194009.1132489728</v>
+        <v>194003.0321908205</v>
       </c>
       <c r="K5">
-        <v>251887.0596698842</v>
+        <v>251876.8175594179</v>
       </c>
       <c r="L5">
-        <v>455342.8301756413</v>
+        <v>455327.7032866385</v>
       </c>
       <c r="M5">
-        <v>404064.2800345815</v>
+        <v>404040.9914780301</v>
       </c>
       <c r="N5">
-        <v>512268.4985446834</v>
+        <v>512233.1896466599</v>
       </c>
       <c r="O5">
-        <v>642772.6056121292</v>
+        <v>642727.847282559</v>
       </c>
       <c r="P5">
-        <v>4079348.945681722</v>
+        <v>4079285.195888219</v>
       </c>
       <c r="Q5">
-        <v>4099205.614482304</v>
+        <v>4099119.345309437</v>
       </c>
       <c r="R5">
-        <v>4123684.674025264</v>
+        <v>4123570.623371442</v>
       </c>
       <c r="S5">
-        <v>12962702.56528997</v>
+        <v>12962555.08030839</v>
       </c>
       <c r="T5">
-        <v>12997279.85803889</v>
+        <v>12997093.10425171</v>
       </c>
       <c r="U5">
-        <v>13036885.26563099</v>
+        <v>13036653.5082677</v>
       </c>
       <c r="V5">
-        <v>13081188.14270622</v>
+        <v>13080906.02615298</v>
       </c>
       <c r="W5">
-        <v>13129668.03735603</v>
+        <v>13129330.80053284</v>
       </c>
       <c r="X5">
-        <v>12601717.91504828</v>
+        <v>12601321.45210701</v>
       </c>
       <c r="Y5">
-        <v>12656930.09396246</v>
+        <v>12656470.82466491</v>
       </c>
       <c r="Z5">
-        <v>12715289.11187751</v>
+        <v>12714763.44674864</v>
       </c>
       <c r="AA5">
-        <v>12777695.82761345</v>
+        <v>12777099.14961608</v>
       </c>
       <c r="AB5">
-        <v>12846472.9357929</v>
+        <v>12845797.97850916</v>
       </c>
       <c r="AC5">
-        <v>2635453.007139329</v>
+        <v>2634687.586549549</v>
       </c>
       <c r="AD5">
-        <v>2732400.429442685</v>
+        <v>2731524.605365505</v>
       </c>
       <c r="AE5">
-        <v>2856386.94659743</v>
+        <v>2855369.876692813</v>
       </c>
       <c r="AF5">
-        <v>3019581.150903672</v>
+        <v>3018378.112596422</v>
       </c>
       <c r="AG5">
-        <v>3236079.467726358</v>
+        <v>3234629.659278358</v>
       </c>
       <c r="AH5">
-        <v>1574126.127399847</v>
+        <v>1572351.892559425</v>
       </c>
       <c r="AI5">
-        <v>1940529.227163894</v>
+        <v>1938337.236298191</v>
       </c>
       <c r="AJ5">
-        <v>2399473.362856152</v>
+        <v>2396758.058384696</v>
       </c>
       <c r="AK5">
-        <v>2956651.196926092</v>
+        <v>2953300.527915218</v>
       </c>
       <c r="AL5">
-        <v>3610938.376132054</v>
+        <v>3606841.574198861</v>
       </c>
       <c r="AM5">
-        <v>4353002.408823878</v>
+        <v>4348059.353512172</v>
       </c>
       <c r="AN5">
-        <v>5164439.822771475</v>
+        <v>5158571.382856572</v>
       </c>
       <c r="AO5">
-        <v>6017614.941675378</v>
+        <v>6010773.508852477</v>
       </c>
       <c r="AP5">
-        <v>6876354.621427797</v>
+        <v>6868533.848543374</v>
       </c>
       <c r="AQ5">
-        <v>7697768.884165006</v>
+        <v>7689011.346493464</v>
       </c>
       <c r="AR5">
-        <v>8435400.060453992</v>
+        <v>8425801.335086191</v>
       </c>
       <c r="AS5">
-        <v>9043476.624398027</v>
+        <v>9033184.488706838</v>
       </c>
       <c r="AT5">
-        <v>9481940.075749964</v>
+        <v>9471148.000129189</v>
       </c>
       <c r="AU5">
-        <v>9721423.671946347</v>
+        <v>9710358.624182526</v>
       </c>
       <c r="AV5">
-        <v>11060064.67064667</v>
+        <v>11048970.35903485</v>
       </c>
       <c r="AW5">
-        <v>11245905.88045514</v>
+        <v>11235023.50320962</v>
       </c>
       <c r="AX5">
-        <v>10867882.72860831</v>
+        <v>10857431.77890137</v>
       </c>
       <c r="AY5">
-        <v>10331105.97343832</v>
+        <v>10321267.51962732</v>
       </c>
       <c r="AZ5">
-        <v>9680256.813945331</v>
+        <v>9671160.973410979</v>
       </c>
       <c r="BA5">
-        <v>8966639.907815475</v>
+        <v>8958358.277297961</v>
       </c>
       <c r="BB5">
-        <v>8053110.979687894</v>
+        <v>8045654.02528979</v>
       </c>
       <c r="BC5">
-        <v>7373098.734081003</v>
+        <v>7366417.682321676</v>
       </c>
       <c r="BD5">
-        <v>6782495.669447008</v>
+        <v>6776488.535062056</v>
       </c>
       <c r="BE5">
-        <v>6319211.921671562</v>
+        <v>6313733.476952948</v>
       </c>
       <c r="BF5">
-        <v>6009374.042587763</v>
+        <v>6004249.25845389</v>
       </c>
       <c r="BG5">
-        <v>5677132.80825527</v>
+        <v>5672172.615817284</v>
       </c>
       <c r="BH5">
-        <v>5697012.102129158</v>
+        <v>5692029.491716137</v>
       </c>
       <c r="BI5">
-        <v>5866680.806143765</v>
+        <v>5861504.919453058</v>
       </c>
       <c r="BJ5">
-        <v>6163021.00656195</v>
+        <v>6157507.354901407</v>
       </c>
       <c r="BK5">
-        <v>6557959.735805106</v>
+        <v>6551995.852101554</v>
       </c>
       <c r="BL5">
-        <v>6880433.508348789</v>
+        <v>6873940.648649902</v>
       </c>
       <c r="BM5">
-        <v>7384633.587020569</v>
+        <v>7377565.874684097</v>
       </c>
       <c r="BN5">
-        <v>7902041.234690766</v>
+        <v>7894383.604282239</v>
       </c>
       <c r="BO5">
-        <v>8407826.032877238</v>
+        <v>8399591.741952265</v>
       </c>
       <c r="BP5">
-        <v>8879585.899200439</v>
+        <v>8870813.758479023</v>
       </c>
       <c r="BQ5">
-        <v>9199053.856678791</v>
+        <v>9189805.019971779</v>
       </c>
       <c r="BR5">
-        <v>9547336.41587764</v>
+        <v>9537690.587457728</v>
       </c>
       <c r="BS5">
-        <v>9813309.679458935</v>
+        <v>9803360.746013347</v>
       </c>
       <c r="BT5">
-        <v>9988793.639188107</v>
+        <v>9978644.817974124</v>
       </c>
       <c r="BU5">
-        <v>10070214.28275299</v>
+        <v>10059972.86770009</v>
       </c>
       <c r="BV5">
-        <v>9962607.181988349</v>
+        <v>9952378.949705608</v>
       </c>
       <c r="BW5">
-        <v>9865015.975077122</v>
+        <v>9854899.353031294</v>
       </c>
       <c r="BX5">
-        <v>9692683.721983138</v>
+        <v>9682763.96420267</v>
       </c>
       <c r="BY5">
-        <v>9461906.696635945</v>
+        <v>9452250.468689993</v>
       </c>
       <c r="BZ5">
-        <v>9192904.014591157</v>
+        <v>9183554.91889154</v>
       </c>
       <c r="CA5">
-        <v>8807367.460731372</v>
+        <v>8798343.111257203</v>
       </c>
       <c r="CB5">
-        <v>8531014.163268013</v>
+        <v>8522305.346322158</v>
       </c>
       <c r="CC5">
-        <v>8284919.077295579</v>
+        <v>8276491.278674653</v>
       </c>
       <c r="CD5">
-        <v>8087938.695067711</v>
+        <v>8079735.891790528</v>
       </c>
       <c r="CE5">
-        <v>7954051.868047893</v>
+        <v>7946002.092063189</v>
       </c>
       <c r="CF5">
-        <v>7777468.622891395</v>
+        <v>7769490.538328215</v>
       </c>
       <c r="CG5">
-        <v>7788491.786866882</v>
+        <v>7780501.456510265</v>
       </c>
       <c r="CH5">
-        <v>7869898.368349074</v>
+        <v>7861815.508868756</v>
       </c>
       <c r="CI5">
-        <v>8013865.342612805</v>
+        <v>8005618.594032336</v>
       </c>
       <c r="CJ5">
-        <v>8209032.349105293</v>
+        <v>8200563.309683725</v>
       </c>
       <c r="CK5">
-        <v>8285836.889195484</v>
+        <v>8277102.835720519</v>
       </c>
       <c r="CL5">
-        <v>8540932.895293918</v>
+        <v>8531908.212982083</v>
       </c>
       <c r="CM5">
-        <v>8803284.686322391</v>
+        <v>8793961.098751282</v>
       </c>
       <c r="CN5">
-        <v>9058423.290337212</v>
+        <v>9048809.025251299</v>
       </c>
       <c r="CO5">
-        <v>9293395.543221945</v>
+        <v>9283513.603499539</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0285184034511</v>
+      </c>
+      <c r="E2">
+        <v>564.6049961208531</v>
+      </c>
+      <c r="F2">
+        <v>1064.814489852368</v>
+      </c>
+      <c r="G2">
+        <v>1435.40814061812</v>
+      </c>
+      <c r="H2">
+        <v>2384.394207670458</v>
+      </c>
+      <c r="I2">
+        <v>2929.674478006852</v>
+      </c>
+      <c r="J2">
+        <v>3538.182203115194</v>
+      </c>
+      <c r="K2">
+        <v>4238.124714509631</v>
+      </c>
+      <c r="L2">
+        <v>4796.096911378431</v>
+      </c>
+      <c r="M2">
+        <v>5480.942779683168</v>
+      </c>
+      <c r="N2">
+        <v>5829.159914966996</v>
+      </c>
+      <c r="O2">
+        <v>6217.185025194345</v>
+      </c>
+      <c r="P2">
+        <v>6997.782939410825</v>
+      </c>
+      <c r="Q2">
+        <v>7795.20375584023</v>
+      </c>
+      <c r="R2">
+        <v>8610.143302214665</v>
+      </c>
+      <c r="S2">
+        <v>10609.56265138923</v>
+      </c>
+      <c r="T2">
+        <v>12601.08217364169</v>
+      </c>
+      <c r="U2">
+        <v>14595.21396863013</v>
+      </c>
+      <c r="V2">
+        <v>16604.77905311181</v>
+      </c>
+      <c r="W2">
+        <v>18631.2487720867</v>
+      </c>
+      <c r="X2">
+        <v>20505.18703300091</v>
+      </c>
+      <c r="Y2">
+        <v>22403.32553907398</v>
+      </c>
+      <c r="Z2">
+        <v>24319.54890752798</v>
+      </c>
+      <c r="AA2">
+        <v>26257.41025056485</v>
+      </c>
+      <c r="AB2">
+        <v>28255.8953146824</v>
+      </c>
+      <c r="AC2">
+        <v>29005.21376181092</v>
+      </c>
+      <c r="AD2">
+        <v>29864.63316047858</v>
+      </c>
+      <c r="AE2">
+        <v>30830.69121403609</v>
+      </c>
+      <c r="AF2">
+        <v>31787.60855849146</v>
+      </c>
+      <c r="AG2">
+        <v>32704.82166206202</v>
+      </c>
+      <c r="AH2">
+        <v>33432.17512759812</v>
+      </c>
+      <c r="AI2">
+        <v>34134.56638520471</v>
+      </c>
+      <c r="AJ2">
+        <v>34804.84893938278</v>
+      </c>
+      <c r="AK2">
+        <v>35453.66480701618</v>
+      </c>
+      <c r="AL2">
+        <v>36190.7558967958</v>
+      </c>
+      <c r="AM2">
+        <v>37126.01480500607</v>
+      </c>
+      <c r="AN2">
+        <v>38279.5382098677</v>
+      </c>
+      <c r="AO2">
+        <v>39743.23619145032</v>
+      </c>
+      <c r="AP2">
+        <v>41604.77115613424</v>
+      </c>
+      <c r="AQ2">
+        <v>43671.08183138919</v>
+      </c>
+      <c r="AR2">
+        <v>45758.6335015676</v>
+      </c>
+      <c r="AS2">
+        <v>47844.71731075689</v>
+      </c>
+      <c r="AT2">
+        <v>49907.87058031627</v>
+      </c>
+      <c r="AU2">
+        <v>51929.98070427736</v>
+      </c>
+      <c r="AV2">
+        <v>53937.95675545072</v>
+      </c>
+      <c r="AW2">
+        <v>55918.2069167197</v>
+      </c>
+      <c r="AX2">
+        <v>58003.02068297133</v>
+      </c>
+      <c r="AY2">
+        <v>59824.79404742501</v>
+      </c>
+      <c r="AZ2">
+        <v>61286.10645227625</v>
+      </c>
+      <c r="BA2">
+        <v>62594.74451400029</v>
+      </c>
+      <c r="BB2">
+        <v>63896.30032281793</v>
+      </c>
+      <c r="BC2">
+        <v>65176.90622170594</v>
+      </c>
+      <c r="BD2">
+        <v>66388.98323108486</v>
+      </c>
+      <c r="BE2">
+        <v>67519.53564444731</v>
+      </c>
+      <c r="BF2">
+        <v>68603.16703358106</v>
+      </c>
+      <c r="BG2">
+        <v>69659.03000519077</v>
+      </c>
+      <c r="BH2">
+        <v>70763.36365627906</v>
+      </c>
+      <c r="BI2">
+        <v>71992.74584915341</v>
+      </c>
+      <c r="BJ2">
+        <v>73422.87543580911</v>
+      </c>
+      <c r="BK2">
+        <v>75105.41107800957</v>
+      </c>
+      <c r="BL2">
+        <v>77048.87870661967</v>
+      </c>
+      <c r="BM2">
+        <v>79246.73574398748</v>
+      </c>
+      <c r="BN2">
+        <v>81596.75477532248</v>
+      </c>
+      <c r="BO2">
+        <v>83992.33705116814</v>
+      </c>
+      <c r="BP2">
+        <v>86383.40892157968</v>
+      </c>
+      <c r="BQ2">
+        <v>88740.55248188063</v>
+      </c>
+      <c r="BR2">
+        <v>91071.89330831521</v>
+      </c>
+      <c r="BS2">
+        <v>93377.89600400998</v>
+      </c>
+      <c r="BT2">
+        <v>95649.00574534525</v>
+      </c>
+      <c r="BU2">
+        <v>97835.89125513037</v>
+      </c>
+      <c r="BV2">
+        <v>99827.56340536142</v>
+      </c>
+      <c r="BW2">
+        <v>101610.1192813129</v>
+      </c>
+      <c r="BX2">
+        <v>103267.7482062081</v>
+      </c>
+      <c r="BY2">
+        <v>104877.7375907201</v>
+      </c>
+      <c r="BZ2">
+        <v>106451.6090135763</v>
+      </c>
+      <c r="CA2">
+        <v>107960.7790880924</v>
+      </c>
+      <c r="CB2">
+        <v>109421.7409534333</v>
+      </c>
+      <c r="CC2">
+        <v>110862.1711940102</v>
+      </c>
+      <c r="CD2">
+        <v>112327.6691244569</v>
+      </c>
+      <c r="CE2">
+        <v>113879.5942799432</v>
+      </c>
+      <c r="CF2">
+        <v>115568.5387980818</v>
+      </c>
+      <c r="CG2">
+        <v>117463.8312790371</v>
+      </c>
+      <c r="CH2">
+        <v>119593.0949722563</v>
+      </c>
+      <c r="CI2">
+        <v>121949.6256064227</v>
+      </c>
+      <c r="CJ2">
+        <v>124490.6957780705</v>
+      </c>
+      <c r="CK2">
+        <v>127122.8000231021</v>
+      </c>
+      <c r="CL2">
+        <v>129795.6474622429</v>
+      </c>
+      <c r="CM2">
+        <v>132464.1157423318</v>
+      </c>
+      <c r="CN2">
+        <v>135108.0743612346</v>
+      </c>
+      <c r="CO2">
+        <v>137719.5311058409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.490721496882</v>
+      </c>
+      <c r="E3">
+        <v>41.19277753860186</v>
+      </c>
+      <c r="F3">
+        <v>83.60503576663271</v>
+      </c>
+      <c r="G3">
+        <v>114.2549509812164</v>
+      </c>
+      <c r="H3">
+        <v>197.4971273012636</v>
+      </c>
+      <c r="I3">
+        <v>244.1372052790946</v>
+      </c>
+      <c r="J3">
+        <v>296.3228416091995</v>
+      </c>
+      <c r="K3">
+        <v>356.4709638530496</v>
+      </c>
+      <c r="L3">
+        <v>403.7690742725149</v>
+      </c>
+      <c r="M3">
+        <v>462.3803506080907</v>
+      </c>
+      <c r="N3">
+        <v>490.1692548249115</v>
+      </c>
+      <c r="O3">
+        <v>521.8967203746889</v>
+      </c>
+      <c r="P3">
+        <v>589.0235850238569</v>
+      </c>
+      <c r="Q3">
+        <v>657.5960127197204</v>
+      </c>
+      <c r="R3">
+        <v>727.6779536339724</v>
+      </c>
+      <c r="S3">
+        <v>904.9948599551451</v>
+      </c>
+      <c r="T3">
+        <v>1081.477494459146</v>
+      </c>
+      <c r="U3">
+        <v>1258.086789153327</v>
+      </c>
+      <c r="V3">
+        <v>1435.994874804326</v>
+      </c>
+      <c r="W3">
+        <v>1615.336258970334</v>
+      </c>
+      <c r="X3">
+        <v>1780.759911534229</v>
+      </c>
+      <c r="Y3">
+        <v>1948.288128001484</v>
+      </c>
+      <c r="Z3">
+        <v>2117.361920998017</v>
+      </c>
+      <c r="AA3">
+        <v>2288.306146884374</v>
+      </c>
+      <c r="AB3">
+        <v>2464.685023653592</v>
+      </c>
+      <c r="AC3">
+        <v>2527.826454434473</v>
+      </c>
+      <c r="AD3">
+        <v>2600.923447851933</v>
+      </c>
+      <c r="AE3">
+        <v>2683.659182400252</v>
+      </c>
+      <c r="AF3">
+        <v>2765.448011290494</v>
+      </c>
+      <c r="AG3">
+        <v>2843.495193537513</v>
+      </c>
+      <c r="AH3">
+        <v>2904.220696062562</v>
+      </c>
+      <c r="AI3">
+        <v>2962.547409210137</v>
+      </c>
+      <c r="AJ3">
+        <v>3017.820584819026</v>
+      </c>
+      <c r="AK3">
+        <v>3071.011442299424</v>
+      </c>
+      <c r="AL3">
+        <v>3132.151304923798</v>
+      </c>
+      <c r="AM3">
+        <v>3211.285097917325</v>
+      </c>
+      <c r="AN3">
+        <v>3310.2491759031</v>
+      </c>
+      <c r="AO3">
+        <v>3437.444698463361</v>
+      </c>
+      <c r="AP3">
+        <v>3600.884942314059</v>
+      </c>
+      <c r="AQ3">
+        <v>3782.922405790442</v>
+      </c>
+      <c r="AR3">
+        <v>3966.77751822718</v>
+      </c>
+      <c r="AS3">
+        <v>4150.375841817552</v>
+      </c>
+      <c r="AT3">
+        <v>4331.757227670561</v>
+      </c>
+      <c r="AU3">
+        <v>4509.268027614798</v>
+      </c>
+      <c r="AV3">
+        <v>4685.35717082159</v>
+      </c>
+      <c r="AW3">
+        <v>4858.783397910881</v>
+      </c>
+      <c r="AX3">
+        <v>5041.482325370261</v>
+      </c>
+      <c r="AY3">
+        <v>5200.015928464914</v>
+      </c>
+      <c r="AZ3">
+        <v>5325.480339867316</v>
+      </c>
+      <c r="BA3">
+        <v>5436.87001040429</v>
+      </c>
+      <c r="BB3">
+        <v>5547.502975766527</v>
+      </c>
+      <c r="BC3">
+        <v>5656.089463385258</v>
+      </c>
+      <c r="BD3">
+        <v>5758.278945273091</v>
+      </c>
+      <c r="BE3">
+        <v>5852.882066469006</v>
+      </c>
+      <c r="BF3">
+        <v>5943.060121825926</v>
+      </c>
+      <c r="BG3">
+        <v>6030.573353671787</v>
+      </c>
+      <c r="BH3">
+        <v>6122.368470799437</v>
+      </c>
+      <c r="BI3">
+        <v>6225.444398608301</v>
+      </c>
+      <c r="BJ3">
+        <v>6346.720015760865</v>
+      </c>
+      <c r="BK3">
+        <v>6490.916683685245</v>
+      </c>
+      <c r="BL3">
+        <v>6658.821300869879</v>
+      </c>
+      <c r="BM3">
+        <v>6849.819862179354</v>
+      </c>
+      <c r="BN3">
+        <v>7054.567593040705</v>
+      </c>
+      <c r="BO3">
+        <v>7263.320400406369</v>
+      </c>
+      <c r="BP3">
+        <v>7471.501434792543</v>
+      </c>
+      <c r="BQ3">
+        <v>7676.421547869714</v>
+      </c>
+      <c r="BR3">
+        <v>7878.813429842798</v>
+      </c>
+      <c r="BS3">
+        <v>8078.720497719485</v>
+      </c>
+      <c r="BT3">
+        <v>8275.270430479199</v>
+      </c>
+      <c r="BU3">
+        <v>8463.955000941623</v>
+      </c>
+      <c r="BV3">
+        <v>8634.630466188726</v>
+      </c>
+      <c r="BW3">
+        <v>8786.016259731916</v>
+      </c>
+      <c r="BX3">
+        <v>8925.808713509956</v>
+      </c>
+      <c r="BY3">
+        <v>9061.072870630815</v>
+      </c>
+      <c r="BZ3">
+        <v>9192.861826269624</v>
+      </c>
+      <c r="CA3">
+        <v>9318.563310139698</v>
+      </c>
+      <c r="CB3">
+        <v>9439.673517811865</v>
+      </c>
+      <c r="CC3">
+        <v>9558.72187923831</v>
+      </c>
+      <c r="CD3">
+        <v>9679.87606031975</v>
+      </c>
+      <c r="CE3">
+        <v>9808.74444432183</v>
+      </c>
+      <c r="CF3">
+        <v>9949.952112879773</v>
+      </c>
+      <c r="CG3">
+        <v>10109.82344675959</v>
+      </c>
+      <c r="CH3">
+        <v>10290.88297512576</v>
+      </c>
+      <c r="CI3">
+        <v>10492.51730125124</v>
+      </c>
+      <c r="CJ3">
+        <v>10710.82021370087</v>
+      </c>
+      <c r="CK3">
+        <v>10937.25016963899</v>
+      </c>
+      <c r="CL3">
+        <v>11167.19273673317</v>
+      </c>
+      <c r="CM3">
+        <v>11396.52325764958</v>
+      </c>
+      <c r="CN3">
+        <v>11623.40175689536</v>
+      </c>
+      <c r="CO3">
+        <v>11847.09797916447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474419.10068802</v>
+      </c>
+      <c r="E4">
+        <v>52898193.44914</v>
+      </c>
+      <c r="F4">
+        <v>82052795.84833744</v>
+      </c>
+      <c r="G4">
+        <v>111343247.5243302</v>
+      </c>
+      <c r="H4">
+        <v>137979901.8434646</v>
+      </c>
+      <c r="I4">
+        <v>164146848.2428952</v>
+      </c>
+      <c r="J4">
+        <v>193027379.3718888</v>
+      </c>
+      <c r="K4">
+        <v>225732572.8877364</v>
+      </c>
+      <c r="L4">
+        <v>258168268.0429206</v>
+      </c>
+      <c r="M4">
+        <v>292700556.6297208</v>
+      </c>
+      <c r="N4">
+        <v>330066567.7851393</v>
+      </c>
+      <c r="O4">
+        <v>364667296.0921433</v>
+      </c>
+      <c r="P4">
+        <v>402184683.0139096</v>
+      </c>
+      <c r="Q4">
+        <v>441013533.8230263</v>
+      </c>
+      <c r="R4">
+        <v>481150496.0863667</v>
+      </c>
+      <c r="S4">
+        <v>524638013.01095</v>
+      </c>
+      <c r="T4">
+        <v>569565032.7131692</v>
+      </c>
+      <c r="U4">
+        <v>615932658.9166652</v>
+      </c>
+      <c r="V4">
+        <v>663741153.1080024</v>
+      </c>
+      <c r="W4">
+        <v>712990282.3928351</v>
+      </c>
+      <c r="X4">
+        <v>763409445.9558905</v>
+      </c>
+      <c r="Y4">
+        <v>815173787.9700639</v>
+      </c>
+      <c r="Z4">
+        <v>868281867.8287569</v>
+      </c>
+      <c r="AA4">
+        <v>922733338.0869964</v>
+      </c>
+      <c r="AB4">
+        <v>978529349.9677595</v>
+      </c>
+      <c r="AC4">
+        <v>1033458054.517546</v>
+      </c>
+      <c r="AD4">
+        <v>1089736827.538241</v>
+      </c>
+      <c r="AE4">
+        <v>1147365748.891082</v>
+      </c>
+      <c r="AF4">
+        <v>1206342458.780722</v>
+      </c>
+      <c r="AG4">
+        <v>1266665634.187807</v>
+      </c>
+      <c r="AH4">
+        <v>1327974508.151751</v>
+      </c>
+      <c r="AI4">
+        <v>1390656568.891199</v>
+      </c>
+      <c r="AJ4">
+        <v>1454715922.592228</v>
+      </c>
+      <c r="AK4">
+        <v>1520159809.690391</v>
+      </c>
+      <c r="AL4">
+        <v>1586999571.140917</v>
+      </c>
+      <c r="AM4">
+        <v>1655217227.584547</v>
+      </c>
+      <c r="AN4">
+        <v>1724816208.325348</v>
+      </c>
+      <c r="AO4">
+        <v>1795811008.135535</v>
+      </c>
+      <c r="AP4">
+        <v>1868214990.793893</v>
+      </c>
+      <c r="AQ4">
+        <v>1941997736.350967</v>
+      </c>
+      <c r="AR4">
+        <v>2017115221.503035</v>
+      </c>
+      <c r="AS4">
+        <v>2093562550.318526</v>
+      </c>
+      <c r="AT4">
+        <v>2171335109.511945</v>
+      </c>
+      <c r="AU4">
+        <v>2250428935.037331</v>
+      </c>
+      <c r="AV4">
+        <v>2331045603.786454</v>
+      </c>
+      <c r="AW4">
+        <v>2413127214.604305</v>
+      </c>
+      <c r="AX4">
+        <v>2496711550.826933</v>
+      </c>
+      <c r="AY4">
+        <v>2581660634.21871</v>
+      </c>
+      <c r="AZ4">
+        <v>2667956333.653317</v>
+      </c>
+      <c r="BA4">
+        <v>2755631970.328239</v>
+      </c>
+      <c r="BB4">
+        <v>2844765287.167513</v>
+      </c>
+      <c r="BC4">
+        <v>2935398232.525306</v>
+      </c>
+      <c r="BD4">
+        <v>3027527214.176806</v>
+      </c>
+      <c r="BE4">
+        <v>3121151822.165903</v>
+      </c>
+      <c r="BF4">
+        <v>3216280743.923032</v>
+      </c>
+      <c r="BG4">
+        <v>3312959003.795482</v>
+      </c>
+      <c r="BH4">
+        <v>3411236571.845395</v>
+      </c>
+      <c r="BI4">
+        <v>3511122598.547953</v>
+      </c>
+      <c r="BJ4">
+        <v>3612625371.69111</v>
+      </c>
+      <c r="BK4">
+        <v>3715751657.810937</v>
+      </c>
+      <c r="BL4">
+        <v>3820525089.513681</v>
+      </c>
+      <c r="BM4">
+        <v>3926972546.839959</v>
+      </c>
+      <c r="BN4">
+        <v>4035077668.688496</v>
+      </c>
+      <c r="BO4">
+        <v>4144823143.832179</v>
+      </c>
+      <c r="BP4">
+        <v>4256200292.602626</v>
+      </c>
+      <c r="BQ4">
+        <v>4369292731.421631</v>
+      </c>
+      <c r="BR4">
+        <v>4484120282.864947</v>
+      </c>
+      <c r="BS4">
+        <v>4600681638.48561</v>
+      </c>
+      <c r="BT4">
+        <v>4718973329.893984</v>
+      </c>
+      <c r="BU4">
+        <v>4838985164.726841</v>
+      </c>
+      <c r="BV4">
+        <v>4960756770.033882</v>
+      </c>
+      <c r="BW4">
+        <v>5084304356.912779</v>
+      </c>
+      <c r="BX4">
+        <v>5209642852.645827</v>
+      </c>
+      <c r="BY4">
+        <v>5336788071.11324</v>
+      </c>
+      <c r="BZ4">
+        <v>5465745948.492899</v>
+      </c>
+      <c r="CA4">
+        <v>5596580136.872204</v>
+      </c>
+      <c r="CB4">
+        <v>5729315470.944327</v>
+      </c>
+      <c r="CC4">
+        <v>5863958203.36623</v>
+      </c>
+      <c r="CD4">
+        <v>6000516631.973186</v>
+      </c>
+      <c r="CE4">
+        <v>6138999779.923184</v>
+      </c>
+      <c r="CF4">
+        <v>6279480621.668721</v>
+      </c>
+      <c r="CG4">
+        <v>6421990371.868235</v>
+      </c>
+      <c r="CH4">
+        <v>6566532099.503457</v>
+      </c>
+      <c r="CI4">
+        <v>6713104341.132274</v>
+      </c>
+      <c r="CJ4">
+        <v>6861700179.540725</v>
+      </c>
+      <c r="CK4">
+        <v>7012357823.685518</v>
+      </c>
+      <c r="CL4">
+        <v>7165099742.500465</v>
+      </c>
+      <c r="CM4">
+        <v>7319918148.153585</v>
+      </c>
+      <c r="CN4">
+        <v>7476809005.364868</v>
+      </c>
+      <c r="CO4">
+        <v>7635769956.578618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694915.880510496</v>
+      </c>
+      <c r="E5">
+        <v>2832563.676557926</v>
+      </c>
+      <c r="F5">
+        <v>3403096.694675317</v>
+      </c>
+      <c r="G5">
+        <v>3754253.187991125</v>
+      </c>
+      <c r="H5">
+        <v>4083823.227273447</v>
+      </c>
+      <c r="I5">
+        <v>4318779.806955459</v>
+      </c>
+      <c r="J5">
+        <v>4512782.839146279</v>
+      </c>
+      <c r="K5">
+        <v>4764659.656705697</v>
+      </c>
+      <c r="L5">
+        <v>5219987.359992336</v>
+      </c>
+      <c r="M5">
+        <v>5624028.351470366</v>
+      </c>
+      <c r="N5">
+        <v>6136261.541117026</v>
+      </c>
+      <c r="O5">
+        <v>6778989.388399585</v>
+      </c>
+      <c r="P5">
+        <v>10858274.5842878</v>
+      </c>
+      <c r="Q5">
+        <v>14957393.92959724</v>
+      </c>
+      <c r="R5">
+        <v>19080964.55296868</v>
+      </c>
+      <c r="S5">
+        <v>32043519.63327707</v>
+      </c>
+      <c r="T5">
+        <v>45040612.73752877</v>
+      </c>
+      <c r="U5">
+        <v>58077266.24579647</v>
+      </c>
+      <c r="V5">
+        <v>71158172.27194944</v>
+      </c>
+      <c r="W5">
+        <v>84287503.07248229</v>
+      </c>
+      <c r="X5">
+        <v>96888824.5245893</v>
+      </c>
+      <c r="Y5">
+        <v>109545295.3492542</v>
+      </c>
+      <c r="Z5">
+        <v>122260058.7960028</v>
+      </c>
+      <c r="AA5">
+        <v>135037157.9456189</v>
+      </c>
+      <c r="AB5">
+        <v>147882955.9241281</v>
+      </c>
+      <c r="AC5">
+        <v>150517643.5106776</v>
+      </c>
+      <c r="AD5">
+        <v>153249168.1160432</v>
+      </c>
+      <c r="AE5">
+        <v>156104537.992736</v>
+      </c>
+      <c r="AF5">
+        <v>159122916.1053324</v>
+      </c>
+      <c r="AG5">
+        <v>162357545.7646107</v>
+      </c>
+      <c r="AH5">
+        <v>163929897.6571702</v>
+      </c>
+      <c r="AI5">
+        <v>165868234.8934684</v>
+      </c>
+      <c r="AJ5">
+        <v>168264992.9518531</v>
+      </c>
+      <c r="AK5">
+        <v>171218293.4797683</v>
+      </c>
+      <c r="AL5">
+        <v>174825135.0539671</v>
+      </c>
+      <c r="AM5">
+        <v>179173194.4074793</v>
+      </c>
+      <c r="AN5">
+        <v>184331765.7903359</v>
+      </c>
+      <c r="AO5">
+        <v>190342539.2991884</v>
+      </c>
+      <c r="AP5">
+        <v>197211073.1477318</v>
+      </c>
+      <c r="AQ5">
+        <v>204900084.4942252</v>
+      </c>
+      <c r="AR5">
+        <v>213325885.8293114</v>
+      </c>
+      <c r="AS5">
+        <v>222359070.3180182</v>
+      </c>
+      <c r="AT5">
+        <v>231830218.3181474</v>
+      </c>
+      <c r="AU5">
+        <v>241540576.9423299</v>
+      </c>
+      <c r="AV5">
+        <v>252589547.3013648</v>
+      </c>
+      <c r="AW5">
+        <v>263824570.8045744</v>
+      </c>
+      <c r="AX5">
+        <v>274682002.5834758</v>
+      </c>
+      <c r="AY5">
+        <v>285003270.1031032</v>
+      </c>
+      <c r="AZ5">
+        <v>294674431.0765141</v>
+      </c>
+      <c r="BA5">
+        <v>303632789.3538121</v>
+      </c>
+      <c r="BB5">
+        <v>311678443.3791019</v>
+      </c>
+      <c r="BC5">
+        <v>319044861.0614235</v>
+      </c>
+      <c r="BD5">
+        <v>325821349.5964856</v>
+      </c>
+      <c r="BE5">
+        <v>332135083.0734386</v>
+      </c>
+      <c r="BF5">
+        <v>338139332.3318925</v>
+      </c>
+      <c r="BG5">
+        <v>343811504.9477098</v>
+      </c>
+      <c r="BH5">
+        <v>349503534.4394259</v>
+      </c>
+      <c r="BI5">
+        <v>355365039.358879</v>
+      </c>
+      <c r="BJ5">
+        <v>361522546.7137805</v>
+      </c>
+      <c r="BK5">
+        <v>368074542.565882</v>
+      </c>
+      <c r="BL5">
+        <v>374948483.214532</v>
+      </c>
+      <c r="BM5">
+        <v>382326049.0892161</v>
+      </c>
+      <c r="BN5">
+        <v>390220432.6934983</v>
+      </c>
+      <c r="BO5">
+        <v>398620024.4354506</v>
+      </c>
+      <c r="BP5">
+        <v>407490838.1939296</v>
+      </c>
+      <c r="BQ5">
+        <v>416680643.2139013</v>
+      </c>
+      <c r="BR5">
+        <v>426218333.8013591</v>
+      </c>
+      <c r="BS5">
+        <v>436021694.5473724</v>
+      </c>
+      <c r="BT5">
+        <v>446000339.3653466</v>
+      </c>
+      <c r="BU5">
+        <v>456060312.2330467</v>
+      </c>
+      <c r="BV5">
+        <v>466012691.1827523</v>
+      </c>
+      <c r="BW5">
+        <v>475867590.5357835</v>
+      </c>
+      <c r="BX5">
+        <v>485550354.4999862</v>
+      </c>
+      <c r="BY5">
+        <v>495002604.9686761</v>
+      </c>
+      <c r="BZ5">
+        <v>504186159.8875677</v>
+      </c>
+      <c r="CA5">
+        <v>512984502.9988249</v>
+      </c>
+      <c r="CB5">
+        <v>521506808.3451471</v>
+      </c>
+      <c r="CC5">
+        <v>529783299.6238217</v>
+      </c>
+      <c r="CD5">
+        <v>537863035.5156122</v>
+      </c>
+      <c r="CE5">
+        <v>545809037.6076754</v>
+      </c>
+      <c r="CF5">
+        <v>553578528.1460036</v>
+      </c>
+      <c r="CG5">
+        <v>561359029.6025139</v>
+      </c>
+      <c r="CH5">
+        <v>569220845.1113827</v>
+      </c>
+      <c r="CI5">
+        <v>577226463.705415</v>
+      </c>
+      <c r="CJ5">
+        <v>585427027.0150987</v>
+      </c>
+      <c r="CK5">
+        <v>593704129.8508192</v>
+      </c>
+      <c r="CL5">
+        <v>602236038.0638013</v>
+      </c>
+      <c r="CM5">
+        <v>611029999.1625526</v>
+      </c>
+      <c r="CN5">
+        <v>620078808.1878039</v>
+      </c>
+      <c r="CO5">
+        <v>629362321.7913034</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Act/RR/Results_world_act_RR_hist.xlsx
+++ b/Results/Act/RR/Results_world_act_RR_hist.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285184034511</v>
+        <v>1072.353295692879</v>
       </c>
       <c r="E2">
-        <v>302.576477717402</v>
+        <v>1397.592550984388</v>
       </c>
       <c r="F2">
-        <v>500.2094937315152</v>
+        <v>1396.906498779885</v>
       </c>
       <c r="G2">
-        <v>370.5936507657514</v>
+        <v>1327.436354936901</v>
       </c>
       <c r="H2">
-        <v>948.9860670523387</v>
+        <v>1780.396702028428</v>
       </c>
       <c r="I2">
-        <v>545.2802703363938</v>
+        <v>1284.428452375686</v>
       </c>
       <c r="J2">
-        <v>608.5077251083422</v>
+        <v>2324.081358655799</v>
       </c>
       <c r="K2">
-        <v>699.9425113944372</v>
+        <v>2310.454967410925</v>
       </c>
       <c r="L2">
-        <v>557.9721968688002</v>
+        <v>2055.826773599356</v>
       </c>
       <c r="M2">
-        <v>684.8458683047368</v>
+        <v>1894.905341665539</v>
       </c>
       <c r="N2">
-        <v>348.2171352838275</v>
+        <v>4053.605641952215</v>
       </c>
       <c r="O2">
-        <v>388.0251102273497</v>
+        <v>2460.582577172025</v>
       </c>
       <c r="P2">
-        <v>780.5979142164795</v>
+        <v>4931.653758089969</v>
       </c>
       <c r="Q2">
-        <v>797.4208164294048</v>
+        <v>5322.413908660931</v>
       </c>
       <c r="R2">
-        <v>814.9395463744353</v>
+        <v>5718.612607993894</v>
       </c>
       <c r="S2">
-        <v>1999.419349174561</v>
+        <v>12503.1699435628</v>
       </c>
       <c r="T2">
-        <v>1991.51952225246</v>
+        <v>13387.39326830922</v>
       </c>
       <c r="U2">
-        <v>1994.131794988441</v>
+        <v>14281.21778846244</v>
       </c>
       <c r="V2">
-        <v>2009.565084481686</v>
+        <v>15191.88837781273</v>
       </c>
       <c r="W2">
-        <v>2026.469718974883</v>
+        <v>16115.96600258726</v>
       </c>
       <c r="X2">
-        <v>1873.938260914215</v>
+        <v>16194.63490865154</v>
       </c>
       <c r="Y2">
-        <v>1898.138506073064</v>
+        <v>17083.59080246898</v>
       </c>
       <c r="Z2">
-        <v>1916.223368454001</v>
+        <v>17979.9011828671</v>
       </c>
       <c r="AA2">
-        <v>1937.861343036873</v>
+        <v>18894.98023593718</v>
       </c>
       <c r="AB2">
-        <v>1998.485064117554</v>
+        <v>19835.97117993856</v>
       </c>
       <c r="AC2">
-        <v>749.3184471285144</v>
+        <v>9274.876520044618</v>
       </c>
       <c r="AD2">
-        <v>859.4193986676687</v>
+        <v>9532.90480893649</v>
       </c>
       <c r="AE2">
-        <v>966.0580535575029</v>
+        <v>9864.01774676778</v>
       </c>
       <c r="AF2">
-        <v>956.9173444553755</v>
+        <v>10184.55480148741</v>
       </c>
       <c r="AG2">
-        <v>917.2131035705557</v>
+        <v>10559.42529254623</v>
       </c>
       <c r="AH2">
-        <v>727.3534655360984</v>
+        <v>6771.848656011638</v>
       </c>
       <c r="AI2">
-        <v>702.3912576065931</v>
+        <v>6835.321037099697</v>
       </c>
       <c r="AJ2">
-        <v>670.2825541780678</v>
+        <v>7166.631508162252</v>
       </c>
       <c r="AK2">
-        <v>648.8158676334045</v>
+        <v>7759.326183602462</v>
       </c>
       <c r="AL2">
-        <v>737.0910897796194</v>
+        <v>8336.461818313506</v>
       </c>
       <c r="AM2">
-        <v>935.2589082102712</v>
+        <v>11044.55847485559</v>
       </c>
       <c r="AN2">
-        <v>1153.523404861627</v>
+        <v>12441.77413334231</v>
       </c>
       <c r="AO2">
-        <v>1463.697981582617</v>
+        <v>14378.67869776967</v>
       </c>
       <c r="AP2">
-        <v>1861.534964683922</v>
+        <v>16878.17027769432</v>
       </c>
       <c r="AQ2">
-        <v>2066.310675254947</v>
+        <v>18669.45809432919</v>
       </c>
       <c r="AR2">
-        <v>2087.551670178408</v>
+        <v>22981.07668992534</v>
       </c>
       <c r="AS2">
-        <v>2086.083809189288</v>
+        <v>23971.37023481244</v>
       </c>
       <c r="AT2">
-        <v>2063.153269559384</v>
+        <v>24802.99732244884</v>
       </c>
       <c r="AU2">
-        <v>2022.110123961084</v>
+        <v>25482.82038925307</v>
       </c>
       <c r="AV2">
-        <v>2007.976051173363</v>
+        <v>26172.83913938083</v>
       </c>
       <c r="AW2">
-        <v>1980.250161268977</v>
+        <v>27414.32540882629</v>
       </c>
       <c r="AX2">
-        <v>2084.813766251633</v>
+        <v>27138.93639940287</v>
       </c>
       <c r="AY2">
-        <v>1821.773364453686</v>
+        <v>25377.86381619268</v>
       </c>
       <c r="AZ2">
-        <v>1461.312404851243</v>
+        <v>22517.72673325493</v>
       </c>
       <c r="BA2">
-        <v>1308.638061724038</v>
+        <v>21098.63861664585</v>
       </c>
       <c r="BB2">
-        <v>1301.555808817641</v>
+        <v>20216.67603421636</v>
       </c>
       <c r="BC2">
-        <v>1280.605898888013</v>
+        <v>20081.00806100281</v>
       </c>
       <c r="BD2">
-        <v>1212.077009378911</v>
+        <v>19440.46143714973</v>
       </c>
       <c r="BE2">
-        <v>1130.552413362454</v>
+        <v>18460.96432026254</v>
       </c>
       <c r="BF2">
-        <v>1083.631389133755</v>
+        <v>18140.21304260692</v>
       </c>
       <c r="BG2">
-        <v>1055.862971609707</v>
+        <v>17963.83647585458</v>
       </c>
       <c r="BH2">
-        <v>1104.333651088296</v>
+        <v>18815.63982574294</v>
       </c>
       <c r="BI2">
-        <v>1229.38219287434</v>
+        <v>20123.83979435458</v>
       </c>
       <c r="BJ2">
-        <v>1430.129586655711</v>
+        <v>21919.73256853574</v>
       </c>
       <c r="BK2">
-        <v>1682.535642200454</v>
+        <v>23883.02251145838</v>
       </c>
       <c r="BL2">
-        <v>1943.467628610105</v>
+        <v>25623.94081547318</v>
       </c>
       <c r="BM2">
-        <v>2197.857037367811</v>
+        <v>27954.56778735401</v>
       </c>
       <c r="BN2">
-        <v>2350.019031335</v>
+        <v>30355.40261975654</v>
       </c>
       <c r="BO2">
-        <v>2395.582275845659</v>
+        <v>32611.58445037794</v>
       </c>
       <c r="BP2">
-        <v>2391.071870411548</v>
+        <v>34146.88689519095</v>
       </c>
       <c r="BQ2">
-        <v>2357.143560300943</v>
+        <v>34891.5727677519</v>
       </c>
       <c r="BR2">
-        <v>2331.340826434585</v>
+        <v>35675.16333911721</v>
       </c>
       <c r="BS2">
-        <v>2306.002695694771</v>
+        <v>36312.21076063113</v>
       </c>
       <c r="BT2">
-        <v>2271.109741335263</v>
+        <v>36540.37801449133</v>
       </c>
       <c r="BU2">
-        <v>2186.885509785121</v>
+        <v>35911.57011788043</v>
       </c>
       <c r="BV2">
-        <v>1991.672150231059</v>
+        <v>34210.25787355839</v>
       </c>
       <c r="BW2">
-        <v>1782.555875951441</v>
+        <v>32528.8442354809</v>
       </c>
       <c r="BX2">
-        <v>1657.628924895234</v>
+        <v>31343.77141958112</v>
       </c>
       <c r="BY2">
-        <v>1609.989384512058</v>
+        <v>30716.99926326832</v>
       </c>
       <c r="BZ2">
-        <v>1573.87142285613</v>
+        <v>30313.08139966867</v>
       </c>
       <c r="CA2">
-        <v>1509.170074516072</v>
+        <v>29661.87144891542</v>
       </c>
       <c r="CB2">
-        <v>1460.961865340927</v>
+        <v>29246.96719183742</v>
       </c>
       <c r="CC2">
-        <v>1440.43024057695</v>
+        <v>29176.23747776269</v>
       </c>
       <c r="CD2">
-        <v>1465.497930446688</v>
+        <v>29606.84253575559</v>
       </c>
       <c r="CE2">
-        <v>1551.925155486261</v>
+        <v>30601.52982148424</v>
       </c>
       <c r="CF2">
-        <v>1688.944518138659</v>
+        <v>31815.66021476475</v>
       </c>
       <c r="CG2">
-        <v>1895.292480955234</v>
+        <v>33589.9244358727</v>
       </c>
       <c r="CH2">
-        <v>2129.263693219189</v>
+        <v>35525.20814646035</v>
       </c>
       <c r="CI2">
-        <v>2356.530634166462</v>
+        <v>37560.34104772157</v>
       </c>
       <c r="CJ2">
-        <v>2541.070171647829</v>
+        <v>39720.78912721969</v>
       </c>
       <c r="CK2">
-        <v>2632.104245031508</v>
+        <v>41446.8227353573</v>
       </c>
       <c r="CL2">
-        <v>2672.847439140884</v>
+        <v>43256.16286796908</v>
       </c>
       <c r="CM2">
-        <v>2668.468280088894</v>
+        <v>44574.91062180322</v>
       </c>
       <c r="CN2">
-        <v>2643.958618902758</v>
+        <v>45448.04477245767</v>
       </c>
       <c r="CO2">
-        <v>2611.456744606297</v>
+        <v>46047.79029759407</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.490721496882</v>
+        <v>70.9098667458114</v>
       </c>
       <c r="E3">
-        <v>24.70205604171986</v>
+        <v>92.69577989651185</v>
       </c>
       <c r="F3">
-        <v>42.41225822803085</v>
+        <v>92.53143555583677</v>
       </c>
       <c r="G3">
-        <v>30.6499152145837</v>
+        <v>87.86447394665797</v>
       </c>
       <c r="H3">
-        <v>83.24217632004714</v>
+        <v>118.3849281223296</v>
       </c>
       <c r="I3">
-        <v>46.64007797783106</v>
+        <v>85.06207674038733</v>
       </c>
       <c r="J3">
-        <v>52.18563633010488</v>
+        <v>154.7765219514088</v>
       </c>
       <c r="K3">
-        <v>60.14812224385006</v>
+        <v>153.7091102740597</v>
       </c>
       <c r="L3">
-        <v>47.29811041946536</v>
+        <v>136.652725353146</v>
       </c>
       <c r="M3">
-        <v>58.61127633557575</v>
+        <v>125.7674442217332</v>
       </c>
       <c r="N3">
-        <v>27.78890421682083</v>
+        <v>270.6654012423808</v>
       </c>
       <c r="O3">
-        <v>31.72746554977741</v>
+        <v>163.8103713536561</v>
       </c>
       <c r="P3">
-        <v>67.126864649168</v>
+        <v>329.6558393883638</v>
       </c>
       <c r="Q3">
-        <v>68.57242769586358</v>
+        <v>355.8734260884138</v>
       </c>
       <c r="R3">
-        <v>70.08194091425196</v>
+        <v>382.4594554224848</v>
       </c>
       <c r="S3">
-        <v>177.3169063211728</v>
+        <v>837.956856854081</v>
       </c>
       <c r="T3">
-        <v>176.4826345040006</v>
+        <v>897.2973525566686</v>
       </c>
       <c r="U3">
-        <v>176.6092946941817</v>
+        <v>957.2876855605583</v>
       </c>
       <c r="V3">
-        <v>177.9080856509983</v>
+        <v>1018.418529479577</v>
       </c>
       <c r="W3">
-        <v>179.3413841660082</v>
+        <v>1080.456966172892</v>
       </c>
       <c r="X3">
-        <v>165.4236525638946</v>
+        <v>1085.726356490448</v>
       </c>
       <c r="Y3">
-        <v>167.5282164672555</v>
+        <v>1145.433847300258</v>
       </c>
       <c r="Z3">
-        <v>169.0737929965332</v>
+        <v>1205.638897725874</v>
       </c>
       <c r="AA3">
-        <v>170.9442258863566</v>
+        <v>1267.114020856015</v>
       </c>
       <c r="AB3">
-        <v>176.378876769218</v>
+        <v>1330.342667918523</v>
       </c>
       <c r="AC3">
-        <v>63.14143078088068</v>
+        <v>621.1844737261076</v>
       </c>
       <c r="AD3">
-        <v>73.09699341746011</v>
+        <v>638.5344824115559</v>
       </c>
       <c r="AE3">
-        <v>82.7357345483186</v>
+        <v>660.8308924368475</v>
       </c>
       <c r="AF3">
-        <v>81.78882889024261</v>
+        <v>682.4076794276223</v>
       </c>
       <c r="AG3">
-        <v>78.04718224701905</v>
+        <v>707.6589615660836</v>
       </c>
       <c r="AH3">
-        <v>60.72550252504862</v>
+        <v>453.3399311568587</v>
       </c>
       <c r="AI3">
-        <v>58.32671314757486</v>
+        <v>457.6076189312213</v>
       </c>
       <c r="AJ3">
-        <v>55.27317560888937</v>
+        <v>480.0066767806351</v>
       </c>
       <c r="AK3">
-        <v>53.19085748039748</v>
+        <v>520.0947753887361</v>
       </c>
       <c r="AL3">
-        <v>61.13986262437439</v>
+        <v>559.1188142578612</v>
       </c>
       <c r="AM3">
-        <v>79.13379299352648</v>
+        <v>741.4269490232593</v>
       </c>
       <c r="AN3">
-        <v>98.96407798577548</v>
+        <v>835.9285561235457</v>
       </c>
       <c r="AO3">
-        <v>127.1955225602612</v>
+        <v>966.973190731153</v>
       </c>
       <c r="AP3">
-        <v>163.4402438506976</v>
+        <v>1136.1147334345</v>
       </c>
       <c r="AQ3">
-        <v>182.0374634763832</v>
+        <v>1257.301627118642</v>
       </c>
       <c r="AR3">
-        <v>183.8551124367383</v>
+        <v>1547.302395027694</v>
       </c>
       <c r="AS3">
-        <v>183.5983235903722</v>
+        <v>1614.190103975942</v>
       </c>
       <c r="AT3">
-        <v>181.3813858530097</v>
+        <v>1670.34750678821</v>
       </c>
       <c r="AU3">
-        <v>177.5107999442371</v>
+        <v>1716.242226224635</v>
       </c>
       <c r="AV3">
-        <v>176.0891432067907</v>
+        <v>1762.846447965382</v>
       </c>
       <c r="AW3">
-        <v>173.4262270892911</v>
+        <v>1846.389023978494</v>
       </c>
       <c r="AX3">
-        <v>182.69892745938</v>
+        <v>1827.632793242692</v>
       </c>
       <c r="AY3">
-        <v>158.5336030946535</v>
+        <v>1708.27971193741</v>
       </c>
       <c r="AZ3">
-        <v>125.4644114024011</v>
+        <v>1514.507753754608</v>
       </c>
       <c r="BA3">
-        <v>111.3896705369742</v>
+        <v>1418.331047619856</v>
       </c>
       <c r="BB3">
-        <v>110.6329653622369</v>
+        <v>1359.03755870426</v>
       </c>
       <c r="BC3">
-        <v>108.5864876187308</v>
+        <v>1349.784623740363</v>
       </c>
       <c r="BD3">
-        <v>102.1894818878332</v>
+        <v>1306.33215130483</v>
       </c>
       <c r="BE3">
-        <v>94.60312119591445</v>
+        <v>1239.912604317023</v>
       </c>
       <c r="BF3">
-        <v>90.17805535692079</v>
+        <v>1218.09091171905</v>
       </c>
       <c r="BG3">
-        <v>87.51323184586069</v>
+        <v>1206.396780977021</v>
       </c>
       <c r="BH3">
-        <v>91.79511712764966</v>
+        <v>1263.957050052245</v>
       </c>
       <c r="BI3">
-        <v>103.0759278088637</v>
+        <v>1352.407483074634</v>
       </c>
       <c r="BJ3">
-        <v>121.2756171525646</v>
+        <v>1473.869612379449</v>
       </c>
       <c r="BK3">
-        <v>144.1966679243798</v>
+        <v>1606.655716870921</v>
       </c>
       <c r="BL3">
-        <v>167.9046171846336</v>
+        <v>1724.575517032822</v>
       </c>
       <c r="BM3">
-        <v>190.9985613094751</v>
+        <v>1882.227145680058</v>
       </c>
       <c r="BN3">
-        <v>204.747730861352</v>
+        <v>2044.633212441249</v>
       </c>
       <c r="BO3">
-        <v>208.752807365664</v>
+        <v>2197.246131956082</v>
       </c>
       <c r="BP3">
-        <v>208.1810343861733</v>
+        <v>2301.044457912811</v>
       </c>
       <c r="BQ3">
-        <v>204.9201130771714</v>
+        <v>2351.407454287733</v>
       </c>
       <c r="BR3">
-        <v>202.3918819730835</v>
+        <v>2404.31135418801</v>
       </c>
       <c r="BS3">
-        <v>199.9070678766878</v>
+        <v>2447.301378689442</v>
       </c>
       <c r="BT3">
-        <v>196.5499327597137</v>
+        <v>2462.612576760546</v>
       </c>
       <c r="BU3">
-        <v>188.6845704624241</v>
+        <v>2419.899330777072</v>
       </c>
       <c r="BV3">
-        <v>170.6754652471033</v>
+        <v>2304.688258056013</v>
       </c>
       <c r="BW3">
-        <v>151.3857935431905</v>
+        <v>2190.708606091831</v>
       </c>
       <c r="BX3">
-        <v>139.7924537780395</v>
+        <v>2110.34784961533</v>
       </c>
       <c r="BY3">
-        <v>135.2641571208593</v>
+        <v>2067.799982631145</v>
       </c>
       <c r="BZ3">
-        <v>131.7889556388097</v>
+        <v>2040.347487654176</v>
       </c>
       <c r="CA3">
-        <v>125.7014838700736</v>
+        <v>1996.260681505848</v>
       </c>
       <c r="CB3">
-        <v>121.1102076721679</v>
+        <v>1968.060547873602</v>
       </c>
       <c r="CC3">
-        <v>119.0483614264442</v>
+        <v>1963.165155080213</v>
       </c>
       <c r="CD3">
-        <v>121.1541810814403</v>
+        <v>1992.216015975052</v>
       </c>
       <c r="CE3">
-        <v>128.8683840020805</v>
+        <v>2059.46107353669</v>
       </c>
       <c r="CF3">
-        <v>141.207668557943</v>
+        <v>2141.699809439252</v>
       </c>
       <c r="CG3">
-        <v>159.8713338798143</v>
+        <v>2261.717592178501</v>
       </c>
       <c r="CH3">
-        <v>181.0595283661701</v>
+        <v>2392.631977995993</v>
       </c>
       <c r="CI3">
-        <v>201.634326125484</v>
+        <v>2530.301941049948</v>
       </c>
       <c r="CJ3">
-        <v>218.302912449624</v>
+        <v>2676.454125149572</v>
       </c>
       <c r="CK3">
-        <v>226.4299559381263</v>
+        <v>2793.407254801385</v>
       </c>
       <c r="CL3">
-        <v>229.9425670941785</v>
+        <v>2915.776968966183</v>
       </c>
       <c r="CM3">
-        <v>229.3305209164093</v>
+        <v>3004.922752690742</v>
       </c>
       <c r="CN3">
-        <v>226.878499245783</v>
+        <v>3063.891805857525</v>
       </c>
       <c r="CO3">
-        <v>223.6962222691025</v>
+        <v>3104.348952963342</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.10068802</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>26423774.34845198</v>
+        <v>1458823.298962824</v>
       </c>
       <c r="F4">
-        <v>29154602.39919744</v>
+        <v>1273536.948864026</v>
       </c>
       <c r="G4">
-        <v>29290451.67599275</v>
+        <v>1477258.372532633</v>
       </c>
       <c r="H4">
-        <v>26636654.31913443</v>
+        <v>1623358.757813651</v>
       </c>
       <c r="I4">
-        <v>26166946.39943056</v>
+        <v>1542872.897228797</v>
       </c>
       <c r="J4">
-        <v>28880531.12899355</v>
+        <v>1677419.056944033</v>
       </c>
       <c r="K4">
-        <v>32705193.51584759</v>
+        <v>1538620.78706379</v>
       </c>
       <c r="L4">
-        <v>32435695.15518427</v>
+        <v>1528306.434827912</v>
       </c>
       <c r="M4">
-        <v>34532288.58680022</v>
+        <v>2038421.069231238</v>
       </c>
       <c r="N4">
-        <v>37366011.15541844</v>
+        <v>1934408.236466115</v>
       </c>
       <c r="O4">
-        <v>34600728.30700402</v>
+        <v>1916153.126861282</v>
       </c>
       <c r="P4">
-        <v>37517386.92176636</v>
+        <v>9931577.840286806</v>
       </c>
       <c r="Q4">
-        <v>38828850.80911663</v>
+        <v>9982387.278428297</v>
       </c>
       <c r="R4">
-        <v>40136962.26334033</v>
+        <v>10022431.05349517</v>
       </c>
       <c r="S4">
-        <v>43487516.9245834</v>
+        <v>31279781.12871488</v>
       </c>
       <c r="T4">
-        <v>44927019.70221924</v>
+        <v>31344377.31664766</v>
       </c>
       <c r="U4">
-        <v>46367626.20349593</v>
+        <v>31419986.93323457</v>
       </c>
       <c r="V4">
-        <v>47808494.19133721</v>
+        <v>31505528.09695473</v>
       </c>
       <c r="W4">
-        <v>49249129.28483271</v>
+        <v>31599563.28161091</v>
       </c>
       <c r="X4">
-        <v>50419163.56305536</v>
+        <v>32549961.40126257</v>
       </c>
       <c r="Y4">
-        <v>51764342.01417334</v>
+        <v>32660911.6093827</v>
       </c>
       <c r="Z4">
-        <v>53108079.85869302</v>
+        <v>32769311.34836029</v>
       </c>
       <c r="AA4">
-        <v>54451470.25823949</v>
+        <v>32887780.79329398</v>
       </c>
       <c r="AB4">
-        <v>55796011.88076303</v>
+        <v>33019051.1094755</v>
       </c>
       <c r="AC4">
-        <v>54928704.54978649</v>
+        <v>9079408.407006437</v>
       </c>
       <c r="AD4">
-        <v>56278773.02069536</v>
+        <v>9247020.237221925</v>
       </c>
       <c r="AE4">
-        <v>57628921.35284009</v>
+        <v>9446887.575191883</v>
       </c>
       <c r="AF4">
-        <v>58976709.8896409</v>
+        <v>9637402.165375361</v>
       </c>
       <c r="AG4">
-        <v>60323175.40708433</v>
+        <v>9882099.062900379</v>
       </c>
       <c r="AH4">
-        <v>61308873.96394449</v>
+        <v>2634324.649063896</v>
       </c>
       <c r="AI4">
-        <v>62682060.73944838</v>
+        <v>2885445.61736868</v>
       </c>
       <c r="AJ4">
-        <v>64059353.70102868</v>
+        <v>3304983.601109055</v>
       </c>
       <c r="AK4">
-        <v>65443887.09816343</v>
+        <v>3911188.682747431</v>
       </c>
       <c r="AL4">
-        <v>66839761.45052585</v>
+        <v>4681540.036266249</v>
       </c>
       <c r="AM4">
-        <v>68217656.44363019</v>
+        <v>9105626.515739188</v>
       </c>
       <c r="AN4">
-        <v>69598980.74080111</v>
+        <v>10368125.06706963</v>
       </c>
       <c r="AO4">
-        <v>70994799.81018661</v>
+        <v>11839486.40330121</v>
       </c>
       <c r="AP4">
-        <v>72403982.65835778</v>
+        <v>13507030.57311474</v>
       </c>
       <c r="AQ4">
-        <v>73782745.55707443</v>
+        <v>14784867.24470953</v>
       </c>
       <c r="AR4">
-        <v>75117485.15206741</v>
+        <v>20653740.85302317</v>
       </c>
       <c r="AS4">
-        <v>76447328.81549072</v>
+        <v>21342389.73276047</v>
       </c>
       <c r="AT4">
-        <v>77772559.1934194</v>
+        <v>21830545.34489401</v>
       </c>
       <c r="AU4">
-        <v>79093825.52538571</v>
+        <v>22092914.63860742</v>
       </c>
       <c r="AV4">
-        <v>80616668.7491236</v>
+        <v>22170386.29645523</v>
       </c>
       <c r="AW4">
-        <v>82081610.81785059</v>
+        <v>23341749.17863254</v>
       </c>
       <c r="AX4">
-        <v>83584336.22262804</v>
+        <v>22768670.4645321</v>
       </c>
       <c r="AY4">
-        <v>84949083.39177743</v>
+        <v>21644694.07133049</v>
       </c>
       <c r="AZ4">
-        <v>86295699.43460667</v>
+        <v>20143344.31843414</v>
       </c>
       <c r="BA4">
-        <v>87675636.67492184</v>
+        <v>19026971.51524213</v>
       </c>
       <c r="BB4">
-        <v>89133316.83927406</v>
+        <v>17369210.64525886</v>
       </c>
       <c r="BC4">
-        <v>90632945.35779279</v>
+        <v>16660596.70824914</v>
       </c>
       <c r="BD4">
-        <v>92128981.65150052</v>
+        <v>15975278.3139108</v>
       </c>
       <c r="BE4">
-        <v>93624607.98909611</v>
+        <v>15431432.01748001</v>
       </c>
       <c r="BF4">
-        <v>95128921.75712925</v>
+        <v>15107583.08799718</v>
       </c>
       <c r="BG4">
-        <v>96678259.87244968</v>
+        <v>14516547.17774849</v>
       </c>
       <c r="BH4">
-        <v>98277568.04991323</v>
+        <v>14718842.9073435</v>
       </c>
       <c r="BI4">
-        <v>99886026.70255776</v>
+        <v>15316632.16414694</v>
       </c>
       <c r="BJ4">
-        <v>101502773.1431575</v>
+        <v>16244631.33828624</v>
       </c>
       <c r="BK4">
-        <v>103126286.119827</v>
+        <v>17353715.54407233</v>
       </c>
       <c r="BL4">
-        <v>104773431.7027442</v>
+        <v>18452082.56303243</v>
       </c>
       <c r="BM4">
-        <v>106447457.3262782</v>
+        <v>19734355.46247735</v>
       </c>
       <c r="BN4">
-        <v>108105121.8485365</v>
+        <v>20938334.22034578</v>
       </c>
       <c r="BO4">
-        <v>109745475.143683</v>
+        <v>21984382.67961864</v>
       </c>
       <c r="BP4">
-        <v>111377148.7704475</v>
+        <v>22776477.45966075</v>
       </c>
       <c r="BQ4">
-        <v>113092438.8190052</v>
+        <v>23334140.9353778</v>
       </c>
       <c r="BR4">
-        <v>114827551.4433166</v>
+        <v>23781318.34468105</v>
       </c>
       <c r="BS4">
-        <v>116561355.6206626</v>
+        <v>24081959.16740772</v>
       </c>
       <c r="BT4">
-        <v>118291691.4083737</v>
+        <v>24159989.67191011</v>
       </c>
       <c r="BU4">
-        <v>120011834.8328568</v>
+        <v>23911132.34547214</v>
       </c>
       <c r="BV4">
-        <v>121771605.3070413</v>
+        <v>23215838.22245894</v>
       </c>
       <c r="BW4">
-        <v>123547586.8788971</v>
+        <v>22556029.67007605</v>
       </c>
       <c r="BX4">
-        <v>125338495.7330481</v>
+        <v>22075307.52441104</v>
       </c>
       <c r="BY4">
-        <v>127145218.4674128</v>
+        <v>21789585.98889285</v>
       </c>
       <c r="BZ4">
-        <v>128957877.3796586</v>
+        <v>21489230.32532429</v>
       </c>
       <c r="CA4">
-        <v>130834188.3793049</v>
+        <v>20962695.65789351</v>
       </c>
       <c r="CB4">
-        <v>132735334.0721236</v>
+        <v>20666766.36915706</v>
       </c>
       <c r="CC4">
-        <v>134642732.4219025</v>
+        <v>20452967.81678404</v>
       </c>
       <c r="CD4">
-        <v>136558428.6069562</v>
+        <v>20359897.65675836</v>
       </c>
       <c r="CE4">
-        <v>138483147.9499978</v>
+        <v>20404544.46762502</v>
       </c>
       <c r="CF4">
-        <v>140480841.7455364</v>
+        <v>20415960.37196534</v>
       </c>
       <c r="CG4">
-        <v>142509750.1995138</v>
+        <v>21035806.89924143</v>
       </c>
       <c r="CH4">
-        <v>144541727.6352226</v>
+        <v>21779236.49194844</v>
       </c>
       <c r="CI4">
-        <v>146572241.6288168</v>
+        <v>22585627.37432782</v>
       </c>
       <c r="CJ4">
-        <v>148595838.4084507</v>
+        <v>23405663.81587356</v>
       </c>
       <c r="CK4">
-        <v>150657644.1447937</v>
+        <v>23600869.85625803</v>
       </c>
       <c r="CL4">
-        <v>152741918.8149469</v>
+        <v>24241914.0630935</v>
       </c>
       <c r="CM4">
-        <v>154818405.6531201</v>
+        <v>24739072.03732761</v>
       </c>
       <c r="CN4">
-        <v>156890857.2112825</v>
+        <v>25111390.22202583</v>
       </c>
       <c r="CO4">
-        <v>158960951.2137501</v>
+        <v>25386150.46503336</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694915.880510496</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>1137647.796047431</v>
+        <v>1439679.414002341</v>
       </c>
       <c r="F5">
-        <v>570533.018117391</v>
+        <v>1345818.204103041</v>
       </c>
       <c r="G5">
-        <v>351156.4933158077</v>
+        <v>1297234.071478467</v>
       </c>
       <c r="H5">
-        <v>329570.0392823215</v>
+        <v>1244834.330190728</v>
       </c>
       <c r="I5">
-        <v>234956.5796820118</v>
+        <v>1555389.286635582</v>
       </c>
       <c r="J5">
-        <v>194003.0321908205</v>
+        <v>1711377.353521905</v>
       </c>
       <c r="K5">
-        <v>251876.8175594179</v>
+        <v>1489426.94034161</v>
       </c>
       <c r="L5">
-        <v>455327.7032866385</v>
+        <v>1378420.280851263</v>
       </c>
       <c r="M5">
-        <v>404040.9914780301</v>
+        <v>1542529.424435778</v>
       </c>
       <c r="N5">
-        <v>512233.1896466599</v>
+        <v>1621887.367372605</v>
       </c>
       <c r="O5">
-        <v>642727.847282559</v>
+        <v>2112184.618362186</v>
       </c>
       <c r="P5">
-        <v>4079285.195888219</v>
+        <v>16307854.80029605</v>
       </c>
       <c r="Q5">
-        <v>4099119.345309437</v>
+        <v>16333811.00661036</v>
       </c>
       <c r="R5">
-        <v>4123570.623371442</v>
+        <v>16366767.76685695</v>
       </c>
       <c r="S5">
-        <v>12962555.08030839</v>
+        <v>54209877.12774869</v>
       </c>
       <c r="T5">
-        <v>12997093.10425171</v>
+        <v>54260358.68841778</v>
       </c>
       <c r="U5">
-        <v>13036653.5082677</v>
+        <v>54321571.15603209</v>
       </c>
       <c r="V5">
-        <v>13080906.02615298</v>
+        <v>54395315.13733557</v>
       </c>
       <c r="W5">
-        <v>13129330.80053284</v>
+        <v>54484202.46248683</v>
       </c>
       <c r="X5">
-        <v>12601321.45210701</v>
+        <v>57389938.31145861</v>
       </c>
       <c r="Y5">
-        <v>12656470.82466491</v>
+        <v>57522856.98112737</v>
       </c>
       <c r="Z5">
-        <v>12714763.44674864</v>
+        <v>57689253.9319164</v>
       </c>
       <c r="AA5">
-        <v>12777099.14961608</v>
+        <v>57901201.50323297</v>
       </c>
       <c r="AB5">
-        <v>12845797.97850916</v>
+        <v>58175259.8114974</v>
       </c>
       <c r="AC5">
-        <v>2634687.586549549</v>
+        <v>16815757.13610247</v>
       </c>
       <c r="AD5">
-        <v>2731524.605365505</v>
+        <v>17286365.34550833</v>
       </c>
       <c r="AE5">
-        <v>2855369.876692813</v>
+        <v>17904375.76482018</v>
       </c>
       <c r="AF5">
-        <v>3018378.112596422</v>
+        <v>18711087.27449148</v>
       </c>
       <c r="AG5">
-        <v>3234629.659278358</v>
+        <v>19752638.32282598</v>
       </c>
       <c r="AH5">
-        <v>1572351.892559425</v>
+        <v>7100985.338434661</v>
       </c>
       <c r="AI5">
-        <v>1938337.236298191</v>
+        <v>8558628.694068663</v>
       </c>
       <c r="AJ5">
-        <v>2396758.058384696</v>
+        <v>10343223.17292801</v>
       </c>
       <c r="AK5">
-        <v>2953300.527915218</v>
+        <v>12736317.07990005</v>
       </c>
       <c r="AL5">
-        <v>3606841.574198861</v>
+        <v>15543797.39676337</v>
       </c>
       <c r="AM5">
-        <v>4348059.353512172</v>
+        <v>24623415.36617304</v>
       </c>
       <c r="AN5">
-        <v>5158571.382856572</v>
+        <v>28103846.88238889</v>
       </c>
       <c r="AO5">
-        <v>6010773.508852477</v>
+        <v>31788746.97210365</v>
       </c>
       <c r="AP5">
-        <v>6868533.848543374</v>
+        <v>35538735.84028139</v>
       </c>
       <c r="AQ5">
-        <v>7689011.346493464</v>
+        <v>39182083.57401909</v>
       </c>
       <c r="AR5">
-        <v>8425801.335086191</v>
+        <v>50730210.09694149</v>
       </c>
       <c r="AS5">
-        <v>9033184.488706838</v>
+        <v>53582963.06524845</v>
       </c>
       <c r="AT5">
-        <v>9471148.000129189</v>
+        <v>55768524.12185865</v>
       </c>
       <c r="AU5">
-        <v>9710358.624182526</v>
+        <v>57152310.57107791</v>
       </c>
       <c r="AV5">
-        <v>11048970.35903485</v>
+        <v>57657577.4055163</v>
       </c>
       <c r="AW5">
-        <v>11235023.50320962</v>
+        <v>59674793.83496889</v>
       </c>
       <c r="AX5">
-        <v>10857431.77890137</v>
+        <v>58466664.70073942</v>
       </c>
       <c r="AY5">
-        <v>10321267.51962732</v>
+        <v>56555590.35647823</v>
       </c>
       <c r="AZ5">
-        <v>9671160.973410979</v>
+        <v>54114422.25143787</v>
       </c>
       <c r="BA5">
-        <v>8958358.277297961</v>
+        <v>51349754.39270806</v>
       </c>
       <c r="BB5">
-        <v>8045654.02528979</v>
+        <v>47088943.78502554</v>
       </c>
       <c r="BC5">
-        <v>7366417.682321676</v>
+        <v>44351865.63733242</v>
       </c>
       <c r="BD5">
-        <v>6776488.535062056</v>
+        <v>41954718.08378091</v>
       </c>
       <c r="BE5">
-        <v>6313733.476952948</v>
+        <v>40081560.01682471</v>
       </c>
       <c r="BF5">
-        <v>6004249.25845389</v>
+        <v>38872385.50926251</v>
       </c>
       <c r="BG5">
-        <v>5672172.615817284</v>
+        <v>37640546.0234106</v>
       </c>
       <c r="BH5">
-        <v>5692029.491716137</v>
+        <v>37952029.72608801</v>
       </c>
       <c r="BI5">
-        <v>5861504.919453058</v>
+        <v>39002643.71591939</v>
       </c>
       <c r="BJ5">
-        <v>6157507.354901407</v>
+        <v>40712331.19998205</v>
       </c>
       <c r="BK5">
-        <v>6551995.852101554</v>
+        <v>42967377.25583482</v>
       </c>
       <c r="BL5">
-        <v>6873940.648649902</v>
+        <v>45527530.78721425</v>
       </c>
       <c r="BM5">
-        <v>7377565.874684097</v>
+        <v>48457143.71103125</v>
       </c>
       <c r="BN5">
-        <v>7894383.604282239</v>
+        <v>51500195.74780367</v>
       </c>
       <c r="BO5">
-        <v>8399591.741952265</v>
+        <v>54508456.68066286</v>
       </c>
       <c r="BP5">
-        <v>8870813.758479023</v>
+        <v>57343204.35894439</v>
       </c>
       <c r="BQ5">
-        <v>9189805.019971779</v>
+        <v>59906786.6344051</v>
       </c>
       <c r="BR5">
-        <v>9537690.587457728</v>
+        <v>62052452.1056831</v>
       </c>
       <c r="BS5">
-        <v>9803360.746013347</v>
+        <v>63734008.00617307</v>
       </c>
       <c r="BT5">
-        <v>9978644.817974124</v>
+        <v>64911880.09468625</v>
       </c>
       <c r="BU5">
-        <v>10059972.86770009</v>
+        <v>65578272.31615769</v>
       </c>
       <c r="BV5">
-        <v>9952378.949705608</v>
+        <v>65537198.36493602</v>
       </c>
       <c r="BW5">
-        <v>9854899.353031294</v>
+        <v>65280738.10258959</v>
       </c>
       <c r="BX5">
-        <v>9682763.96420267</v>
+        <v>64667631.89649016</v>
       </c>
       <c r="BY5">
-        <v>9452250.468689993</v>
+        <v>63795663.61114269</v>
       </c>
       <c r="BZ5">
-        <v>9183554.91889154</v>
+        <v>62774651.21854672</v>
       </c>
       <c r="CA5">
-        <v>8798343.111257203</v>
+        <v>61327560.50123087</v>
       </c>
       <c r="CB5">
-        <v>8522305.346322158</v>
+        <v>60346309.92846997</v>
       </c>
       <c r="CC5">
-        <v>8276491.278674653</v>
+        <v>59539220.10646011</v>
       </c>
       <c r="CD5">
-        <v>8079735.891790528</v>
+        <v>58988733.0391894</v>
       </c>
       <c r="CE5">
-        <v>7946002.092063189</v>
+        <v>58755790.58340008</v>
       </c>
       <c r="CF5">
-        <v>7769490.538328215</v>
+        <v>58206316.45132345</v>
       </c>
       <c r="CG5">
-        <v>7780501.456510265</v>
+        <v>58691978.72576661</v>
       </c>
       <c r="CH5">
-        <v>7861815.508868756</v>
+        <v>59528162.71852187</v>
       </c>
       <c r="CI5">
-        <v>8005618.594032336</v>
+        <v>60678712.23020957</v>
       </c>
       <c r="CJ5">
-        <v>8200563.309683725</v>
+        <v>62089476.97916714</v>
       </c>
       <c r="CK5">
-        <v>8277102.835720519</v>
+        <v>62640841.93142905</v>
       </c>
       <c r="CL5">
-        <v>8531908.212982083</v>
+        <v>64362397.59358234</v>
       </c>
       <c r="CM5">
-        <v>8793961.098751282</v>
+        <v>66123977.81259896</v>
       </c>
       <c r="CN5">
-        <v>9048809.025251299</v>
+        <v>67850172.64941625</v>
       </c>
       <c r="CO5">
-        <v>9283513.603499539</v>
+        <v>69472419.29161821</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285184034511</v>
+        <v>1072.353295692879</v>
       </c>
       <c r="E2">
-        <v>564.6049961208531</v>
+        <v>2469.945846677267</v>
       </c>
       <c r="F2">
-        <v>1064.814489852368</v>
+        <v>3866.852345457151</v>
       </c>
       <c r="G2">
-        <v>1435.40814061812</v>
+        <v>5194.288700394052</v>
       </c>
       <c r="H2">
-        <v>2384.394207670458</v>
+        <v>6974.68540242248</v>
       </c>
       <c r="I2">
-        <v>2929.674478006852</v>
+        <v>8259.113854798166</v>
       </c>
       <c r="J2">
-        <v>3538.182203115194</v>
+        <v>10583.19521345397</v>
       </c>
       <c r="K2">
-        <v>4238.124714509631</v>
+        <v>12893.65018086489</v>
       </c>
       <c r="L2">
-        <v>4796.096911378431</v>
+        <v>14949.47695446425</v>
       </c>
       <c r="M2">
-        <v>5480.942779683168</v>
+        <v>16844.38229612978</v>
       </c>
       <c r="N2">
-        <v>5829.159914966996</v>
+        <v>20897.987938082</v>
       </c>
       <c r="O2">
-        <v>6217.185025194345</v>
+        <v>23358.57051525402</v>
       </c>
       <c r="P2">
-        <v>6997.782939410825</v>
+        <v>28290.22427334399</v>
       </c>
       <c r="Q2">
-        <v>7795.20375584023</v>
+        <v>33612.63818200492</v>
       </c>
       <c r="R2">
-        <v>8610.143302214665</v>
+        <v>39331.25078999881</v>
       </c>
       <c r="S2">
-        <v>10609.56265138923</v>
+        <v>51834.42073356161</v>
       </c>
       <c r="T2">
-        <v>12601.08217364169</v>
+        <v>65221.81400187083</v>
       </c>
       <c r="U2">
-        <v>14595.21396863013</v>
+        <v>79503.03179033326</v>
       </c>
       <c r="V2">
-        <v>16604.77905311181</v>
+        <v>94694.920168146</v>
       </c>
       <c r="W2">
-        <v>18631.2487720867</v>
+        <v>110810.8861707333</v>
       </c>
       <c r="X2">
-        <v>20505.18703300091</v>
+        <v>127005.5210793848</v>
       </c>
       <c r="Y2">
-        <v>22403.32553907398</v>
+        <v>144089.1118818538</v>
       </c>
       <c r="Z2">
-        <v>24319.54890752798</v>
+        <v>162069.0130647209</v>
       </c>
       <c r="AA2">
-        <v>26257.41025056485</v>
+        <v>180963.993300658</v>
       </c>
       <c r="AB2">
-        <v>28255.8953146824</v>
+        <v>200799.9644805966</v>
       </c>
       <c r="AC2">
-        <v>29005.21376181092</v>
+        <v>210074.8410006412</v>
       </c>
       <c r="AD2">
-        <v>29864.63316047858</v>
+        <v>219607.7458095777</v>
       </c>
       <c r="AE2">
-        <v>30830.69121403609</v>
+        <v>229471.7635563455</v>
       </c>
       <c r="AF2">
-        <v>31787.60855849146</v>
+        <v>239656.3183578329</v>
       </c>
       <c r="AG2">
-        <v>32704.82166206202</v>
+        <v>250215.7436503791</v>
       </c>
       <c r="AH2">
-        <v>33432.17512759812</v>
+        <v>256987.5923063907</v>
       </c>
       <c r="AI2">
-        <v>34134.56638520471</v>
+        <v>263822.9133434905</v>
       </c>
       <c r="AJ2">
-        <v>34804.84893938278</v>
+        <v>270989.5448516527</v>
       </c>
       <c r="AK2">
-        <v>35453.66480701618</v>
+        <v>278748.8710352551</v>
       </c>
       <c r="AL2">
-        <v>36190.7558967958</v>
+        <v>287085.3328535687</v>
       </c>
       <c r="AM2">
-        <v>37126.01480500607</v>
+        <v>298129.8913284243</v>
       </c>
       <c r="AN2">
-        <v>38279.5382098677</v>
+        <v>310571.6654617666</v>
       </c>
       <c r="AO2">
-        <v>39743.23619145032</v>
+        <v>324950.3441595362</v>
       </c>
       <c r="AP2">
-        <v>41604.77115613424</v>
+        <v>341828.5144372305</v>
       </c>
       <c r="AQ2">
-        <v>43671.08183138919</v>
+        <v>360497.9725315598</v>
       </c>
       <c r="AR2">
-        <v>45758.6335015676</v>
+        <v>383479.0492214851</v>
       </c>
       <c r="AS2">
-        <v>47844.71731075689</v>
+        <v>407450.4194562975</v>
       </c>
       <c r="AT2">
-        <v>49907.87058031627</v>
+        <v>432253.4167787464</v>
       </c>
       <c r="AU2">
-        <v>51929.98070427736</v>
+        <v>457736.2371679994</v>
       </c>
       <c r="AV2">
-        <v>53937.95675545072</v>
+        <v>483909.0763073803</v>
       </c>
       <c r="AW2">
-        <v>55918.2069167197</v>
+        <v>511323.4017162066</v>
       </c>
       <c r="AX2">
-        <v>58003.02068297133</v>
+        <v>538462.3381156095</v>
       </c>
       <c r="AY2">
-        <v>59824.79404742501</v>
+        <v>563840.2019318022</v>
       </c>
       <c r="AZ2">
-        <v>61286.10645227625</v>
+        <v>586357.9286650572</v>
       </c>
       <c r="BA2">
-        <v>62594.74451400029</v>
+        <v>607456.567281703</v>
       </c>
       <c r="BB2">
-        <v>63896.30032281793</v>
+        <v>627673.2433159193</v>
       </c>
       <c r="BC2">
-        <v>65176.90622170594</v>
+        <v>647754.2513769221</v>
       </c>
       <c r="BD2">
-        <v>66388.98323108486</v>
+        <v>667194.7128140718</v>
       </c>
       <c r="BE2">
-        <v>67519.53564444731</v>
+        <v>685655.6771343343</v>
       </c>
       <c r="BF2">
-        <v>68603.16703358106</v>
+        <v>703795.8901769413</v>
       </c>
       <c r="BG2">
-        <v>69659.03000519077</v>
+        <v>721759.7266527959</v>
       </c>
       <c r="BH2">
-        <v>70763.36365627906</v>
+        <v>740575.3664785388</v>
       </c>
       <c r="BI2">
-        <v>71992.74584915341</v>
+        <v>760699.2062728935</v>
       </c>
       <c r="BJ2">
-        <v>73422.87543580911</v>
+        <v>782618.9388414292</v>
       </c>
       <c r="BK2">
-        <v>75105.41107800957</v>
+        <v>806501.9613528876</v>
       </c>
       <c r="BL2">
-        <v>77048.87870661967</v>
+        <v>832125.9021683608</v>
       </c>
       <c r="BM2">
-        <v>79246.73574398748</v>
+        <v>860080.4699557148</v>
       </c>
       <c r="BN2">
-        <v>81596.75477532248</v>
+        <v>890435.8725754713</v>
       </c>
       <c r="BO2">
-        <v>83992.33705116814</v>
+        <v>923047.4570258493</v>
       </c>
       <c r="BP2">
-        <v>86383.40892157968</v>
+        <v>957194.3439210402</v>
       </c>
       <c r="BQ2">
-        <v>88740.55248188063</v>
+        <v>992085.9166887921</v>
       </c>
       <c r="BR2">
-        <v>91071.89330831521</v>
+        <v>1027761.080027909</v>
       </c>
       <c r="BS2">
-        <v>93377.89600400998</v>
+        <v>1064073.29078854</v>
       </c>
       <c r="BT2">
-        <v>95649.00574534525</v>
+        <v>1100613.668803032</v>
       </c>
       <c r="BU2">
-        <v>97835.89125513037</v>
+        <v>1136525.238920912</v>
       </c>
       <c r="BV2">
-        <v>99827.56340536142</v>
+        <v>1170735.496794471</v>
       </c>
       <c r="BW2">
-        <v>101610.1192813129</v>
+        <v>1203264.341029952</v>
       </c>
       <c r="BX2">
-        <v>103267.7482062081</v>
+        <v>1234608.112449533</v>
       </c>
       <c r="BY2">
-        <v>104877.7375907201</v>
+        <v>1265325.111712801</v>
       </c>
       <c r="BZ2">
-        <v>106451.6090135763</v>
+        <v>1295638.19311247</v>
       </c>
       <c r="CA2">
-        <v>107960.7790880924</v>
+        <v>1325300.064561385</v>
       </c>
       <c r="CB2">
-        <v>109421.7409534333</v>
+        <v>1354547.031753223</v>
       </c>
       <c r="CC2">
-        <v>110862.1711940102</v>
+        <v>1383723.269230985</v>
       </c>
       <c r="CD2">
-        <v>112327.6691244569</v>
+        <v>1413330.111766741</v>
       </c>
       <c r="CE2">
-        <v>113879.5942799432</v>
+        <v>1443931.641588225</v>
       </c>
       <c r="CF2">
-        <v>115568.5387980818</v>
+        <v>1475747.30180299</v>
       </c>
       <c r="CG2">
-        <v>117463.8312790371</v>
+        <v>1509337.226238863</v>
       </c>
       <c r="CH2">
-        <v>119593.0949722563</v>
+        <v>1544862.434385323</v>
       </c>
       <c r="CI2">
-        <v>121949.6256064227</v>
+        <v>1582422.775433045</v>
       </c>
       <c r="CJ2">
-        <v>124490.6957780705</v>
+        <v>1622143.564560264</v>
       </c>
       <c r="CK2">
-        <v>127122.8000231021</v>
+        <v>1663590.387295622</v>
       </c>
       <c r="CL2">
-        <v>129795.6474622429</v>
+        <v>1706846.550163591</v>
       </c>
       <c r="CM2">
-        <v>132464.1157423318</v>
+        <v>1751421.460785394</v>
       </c>
       <c r="CN2">
-        <v>135108.0743612346</v>
+        <v>1796869.505557852</v>
       </c>
       <c r="CO2">
-        <v>137719.5311058409</v>
+        <v>1842917.295855446</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.490721496882</v>
+        <v>70.9098667458114</v>
       </c>
       <c r="E3">
-        <v>41.19277753860186</v>
+        <v>163.6056466423233</v>
       </c>
       <c r="F3">
-        <v>83.60503576663271</v>
+        <v>256.13708219816</v>
       </c>
       <c r="G3">
-        <v>114.2549509812164</v>
+        <v>344.001556144818</v>
       </c>
       <c r="H3">
-        <v>197.4971273012636</v>
+        <v>462.3864842671475</v>
       </c>
       <c r="I3">
-        <v>244.1372052790946</v>
+        <v>547.4485610075349</v>
       </c>
       <c r="J3">
-        <v>296.3228416091995</v>
+        <v>702.2250829589436</v>
       </c>
       <c r="K3">
-        <v>356.4709638530496</v>
+        <v>855.9341932330033</v>
       </c>
       <c r="L3">
-        <v>403.7690742725149</v>
+        <v>992.5869185861493</v>
       </c>
       <c r="M3">
-        <v>462.3803506080907</v>
+        <v>1118.354362807883</v>
       </c>
       <c r="N3">
-        <v>490.1692548249115</v>
+        <v>1389.019764050263</v>
       </c>
       <c r="O3">
-        <v>521.8967203746889</v>
+        <v>1552.830135403919</v>
       </c>
       <c r="P3">
-        <v>589.0235850238569</v>
+        <v>1882.485974792283</v>
       </c>
       <c r="Q3">
-        <v>657.5960127197204</v>
+        <v>2238.359400880697</v>
       </c>
       <c r="R3">
-        <v>727.6779536339724</v>
+        <v>2620.818856303182</v>
       </c>
       <c r="S3">
-        <v>904.9948599551451</v>
+        <v>3458.775713157263</v>
       </c>
       <c r="T3">
-        <v>1081.477494459146</v>
+        <v>4356.073065713931</v>
       </c>
       <c r="U3">
-        <v>1258.086789153327</v>
+        <v>5313.360751274489</v>
       </c>
       <c r="V3">
-        <v>1435.994874804326</v>
+        <v>6331.779280754066</v>
       </c>
       <c r="W3">
-        <v>1615.336258970334</v>
+        <v>7412.236246926958</v>
       </c>
       <c r="X3">
-        <v>1780.759911534229</v>
+        <v>8497.962603417407</v>
       </c>
       <c r="Y3">
-        <v>1948.288128001484</v>
+        <v>9643.396450717664</v>
       </c>
       <c r="Z3">
-        <v>2117.361920998017</v>
+        <v>10849.03534844354</v>
       </c>
       <c r="AA3">
-        <v>2288.306146884374</v>
+        <v>12116.14936929955</v>
       </c>
       <c r="AB3">
-        <v>2464.685023653592</v>
+        <v>13446.49203721808</v>
       </c>
       <c r="AC3">
-        <v>2527.826454434473</v>
+        <v>14067.67651094418</v>
       </c>
       <c r="AD3">
-        <v>2600.923447851933</v>
+        <v>14706.21099335574</v>
       </c>
       <c r="AE3">
-        <v>2683.659182400252</v>
+        <v>15367.04188579259</v>
       </c>
       <c r="AF3">
-        <v>2765.448011290494</v>
+        <v>16049.44956522021</v>
       </c>
       <c r="AG3">
-        <v>2843.495193537513</v>
+        <v>16757.10852678629</v>
       </c>
       <c r="AH3">
-        <v>2904.220696062562</v>
+        <v>17210.44845794315</v>
       </c>
       <c r="AI3">
-        <v>2962.547409210137</v>
+        <v>17668.05607687437</v>
       </c>
       <c r="AJ3">
-        <v>3017.820584819026</v>
+        <v>18148.06275365501</v>
       </c>
       <c r="AK3">
-        <v>3071.011442299424</v>
+        <v>18668.15752904375</v>
       </c>
       <c r="AL3">
-        <v>3132.151304923798</v>
+        <v>19227.27634330161</v>
       </c>
       <c r="AM3">
-        <v>3211.285097917325</v>
+        <v>19968.70329232487</v>
       </c>
       <c r="AN3">
-        <v>3310.2491759031</v>
+        <v>20804.63184844841</v>
       </c>
       <c r="AO3">
-        <v>3437.444698463361</v>
+        <v>21771.60503917957</v>
       </c>
       <c r="AP3">
-        <v>3600.884942314059</v>
+        <v>22907.71977261407</v>
       </c>
       <c r="AQ3">
-        <v>3782.922405790442</v>
+        <v>24165.02139973271</v>
       </c>
       <c r="AR3">
-        <v>3966.77751822718</v>
+        <v>25712.3237947604</v>
       </c>
       <c r="AS3">
-        <v>4150.375841817552</v>
+        <v>27326.51389873635</v>
       </c>
       <c r="AT3">
-        <v>4331.757227670561</v>
+        <v>28996.86140552456</v>
       </c>
       <c r="AU3">
-        <v>4509.268027614798</v>
+        <v>30713.10363174919</v>
       </c>
       <c r="AV3">
-        <v>4685.35717082159</v>
+        <v>32475.95007971457</v>
       </c>
       <c r="AW3">
-        <v>4858.783397910881</v>
+        <v>34322.33910369307</v>
       </c>
       <c r="AX3">
-        <v>5041.482325370261</v>
+        <v>36149.97189693576</v>
       </c>
       <c r="AY3">
-        <v>5200.015928464914</v>
+        <v>37858.25160887317</v>
       </c>
       <c r="AZ3">
-        <v>5325.480339867316</v>
+        <v>39372.75936262778</v>
       </c>
       <c r="BA3">
-        <v>5436.87001040429</v>
+        <v>40791.09041024763</v>
       </c>
       <c r="BB3">
-        <v>5547.502975766527</v>
+        <v>42150.12796895189</v>
       </c>
       <c r="BC3">
-        <v>5656.089463385258</v>
+        <v>43499.91259269226</v>
       </c>
       <c r="BD3">
-        <v>5758.278945273091</v>
+        <v>44806.24474399709</v>
       </c>
       <c r="BE3">
-        <v>5852.882066469006</v>
+        <v>46046.15734831411</v>
       </c>
       <c r="BF3">
-        <v>5943.060121825926</v>
+        <v>47264.24826003316</v>
       </c>
       <c r="BG3">
-        <v>6030.573353671787</v>
+        <v>48470.64504101018</v>
       </c>
       <c r="BH3">
-        <v>6122.368470799437</v>
+        <v>49734.60209106243</v>
       </c>
       <c r="BI3">
-        <v>6225.444398608301</v>
+        <v>51087.00957413706</v>
       </c>
       <c r="BJ3">
-        <v>6346.720015760865</v>
+        <v>52560.87918651651</v>
       </c>
       <c r="BK3">
-        <v>6490.916683685245</v>
+        <v>54167.53490338743</v>
       </c>
       <c r="BL3">
-        <v>6658.821300869879</v>
+        <v>55892.11042042025</v>
       </c>
       <c r="BM3">
-        <v>6849.819862179354</v>
+        <v>57774.33756610031</v>
       </c>
       <c r="BN3">
-        <v>7054.567593040705</v>
+        <v>59818.97077854156</v>
       </c>
       <c r="BO3">
-        <v>7263.320400406369</v>
+        <v>62016.21691049764</v>
       </c>
       <c r="BP3">
-        <v>7471.501434792543</v>
+        <v>64317.26136841045</v>
       </c>
       <c r="BQ3">
-        <v>7676.421547869714</v>
+        <v>66668.66882269818</v>
       </c>
       <c r="BR3">
-        <v>7878.813429842798</v>
+        <v>69072.98017688619</v>
       </c>
       <c r="BS3">
-        <v>8078.720497719485</v>
+        <v>71520.28155557564</v>
       </c>
       <c r="BT3">
-        <v>8275.270430479199</v>
+        <v>73982.89413233618</v>
       </c>
       <c r="BU3">
-        <v>8463.955000941623</v>
+        <v>76402.79346311325</v>
       </c>
       <c r="BV3">
-        <v>8634.630466188726</v>
+        <v>78707.48172116927</v>
       </c>
       <c r="BW3">
-        <v>8786.016259731916</v>
+        <v>80898.19032726111</v>
       </c>
       <c r="BX3">
-        <v>8925.808713509956</v>
+        <v>83008.53817687643</v>
       </c>
       <c r="BY3">
-        <v>9061.072870630815</v>
+        <v>85076.33815950758</v>
       </c>
       <c r="BZ3">
-        <v>9192.861826269624</v>
+        <v>87116.68564716175</v>
       </c>
       <c r="CA3">
-        <v>9318.563310139698</v>
+        <v>89112.9463286676</v>
       </c>
       <c r="CB3">
-        <v>9439.673517811865</v>
+        <v>91081.0068765412</v>
       </c>
       <c r="CC3">
-        <v>9558.72187923831</v>
+        <v>93044.17203162142</v>
       </c>
       <c r="CD3">
-        <v>9679.87606031975</v>
+        <v>95036.38804759647</v>
       </c>
       <c r="CE3">
-        <v>9808.74444432183</v>
+        <v>97095.84912113316</v>
       </c>
       <c r="CF3">
-        <v>9949.952112879773</v>
+        <v>99237.5489305724</v>
       </c>
       <c r="CG3">
-        <v>10109.82344675959</v>
+        <v>101499.2665227509</v>
       </c>
       <c r="CH3">
-        <v>10290.88297512576</v>
+        <v>103891.8985007469</v>
       </c>
       <c r="CI3">
-        <v>10492.51730125124</v>
+        <v>106422.2004417968</v>
       </c>
       <c r="CJ3">
-        <v>10710.82021370087</v>
+        <v>109098.6545669464</v>
       </c>
       <c r="CK3">
-        <v>10937.25016963899</v>
+        <v>111892.0618217478</v>
       </c>
       <c r="CL3">
-        <v>11167.19273673317</v>
+        <v>114807.838790714</v>
       </c>
       <c r="CM3">
-        <v>11396.52325764958</v>
+        <v>117812.7615434047</v>
       </c>
       <c r="CN3">
-        <v>11623.40175689536</v>
+        <v>120876.6533492622</v>
       </c>
       <c r="CO3">
-        <v>11847.09797916447</v>
+        <v>123981.0023022256</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.10068802</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>52898193.44914</v>
+        <v>3082913.836292786</v>
       </c>
       <c r="F4">
-        <v>82052795.84833744</v>
+        <v>4356450.785156812</v>
       </c>
       <c r="G4">
-        <v>111343247.5243302</v>
+        <v>5833709.157689445</v>
       </c>
       <c r="H4">
-        <v>137979901.8434646</v>
+        <v>7457067.915503096</v>
       </c>
       <c r="I4">
-        <v>164146848.2428952</v>
+        <v>8999940.812731894</v>
       </c>
       <c r="J4">
-        <v>193027379.3718888</v>
+        <v>10677359.86967593</v>
       </c>
       <c r="K4">
-        <v>225732572.8877364</v>
+        <v>12215980.65673972</v>
       </c>
       <c r="L4">
-        <v>258168268.0429206</v>
+        <v>13744287.09156763</v>
       </c>
       <c r="M4">
-        <v>292700556.6297208</v>
+        <v>15782708.16079887</v>
       </c>
       <c r="N4">
-        <v>330066567.7851393</v>
+        <v>17717116.39726498</v>
       </c>
       <c r="O4">
-        <v>364667296.0921433</v>
+        <v>19633269.52412627</v>
       </c>
       <c r="P4">
-        <v>402184683.0139096</v>
+        <v>29564847.36441307</v>
       </c>
       <c r="Q4">
-        <v>441013533.8230263</v>
+        <v>39547234.64284137</v>
       </c>
       <c r="R4">
-        <v>481150496.0863667</v>
+        <v>49569665.69633654</v>
       </c>
       <c r="S4">
-        <v>524638013.01095</v>
+        <v>80849446.82505143</v>
       </c>
       <c r="T4">
-        <v>569565032.7131692</v>
+        <v>112193824.1416991</v>
       </c>
       <c r="U4">
-        <v>615932658.9166652</v>
+        <v>143613811.0749336</v>
       </c>
       <c r="V4">
-        <v>663741153.1080024</v>
+        <v>175119339.1718884</v>
       </c>
       <c r="W4">
-        <v>712990282.3928351</v>
+        <v>206718902.4534993</v>
       </c>
       <c r="X4">
-        <v>763409445.9558905</v>
+        <v>239268863.8547618</v>
       </c>
       <c r="Y4">
-        <v>815173787.9700639</v>
+        <v>271929775.4641445</v>
       </c>
       <c r="Z4">
-        <v>868281867.8287569</v>
+        <v>304699086.8125048</v>
       </c>
       <c r="AA4">
-        <v>922733338.0869964</v>
+        <v>337586867.6057988</v>
       </c>
       <c r="AB4">
-        <v>978529349.9677595</v>
+        <v>370605918.7152743</v>
       </c>
       <c r="AC4">
-        <v>1033458054.517546</v>
+        <v>379685327.1222807</v>
       </c>
       <c r="AD4">
-        <v>1089736827.538241</v>
+        <v>388932347.3595026</v>
       </c>
       <c r="AE4">
-        <v>1147365748.891082</v>
+        <v>398379234.9346945</v>
       </c>
       <c r="AF4">
-        <v>1206342458.780722</v>
+        <v>408016637.1000698</v>
       </c>
       <c r="AG4">
-        <v>1266665634.187807</v>
+        <v>417898736.1629702</v>
       </c>
       <c r="AH4">
-        <v>1327974508.151751</v>
+        <v>420533060.8120341</v>
       </c>
       <c r="AI4">
-        <v>1390656568.891199</v>
+        <v>423418506.4294028</v>
       </c>
       <c r="AJ4">
-        <v>1454715922.592228</v>
+        <v>426723490.0305118</v>
       </c>
       <c r="AK4">
-        <v>1520159809.690391</v>
+        <v>430634678.7132592</v>
       </c>
       <c r="AL4">
-        <v>1586999571.140917</v>
+        <v>435316218.7495255</v>
       </c>
       <c r="AM4">
-        <v>1655217227.584547</v>
+        <v>444421845.2652647</v>
       </c>
       <c r="AN4">
-        <v>1724816208.325348</v>
+        <v>454789970.3323343</v>
       </c>
       <c r="AO4">
-        <v>1795811008.135535</v>
+        <v>466629456.7356355</v>
       </c>
       <c r="AP4">
-        <v>1868214990.793893</v>
+        <v>480136487.3087503</v>
       </c>
       <c r="AQ4">
-        <v>1941997736.350967</v>
+        <v>494921354.5534598</v>
       </c>
       <c r="AR4">
-        <v>2017115221.503035</v>
+        <v>515575095.406483</v>
       </c>
       <c r="AS4">
-        <v>2093562550.318526</v>
+        <v>536917485.1392435</v>
       </c>
       <c r="AT4">
-        <v>2171335109.511945</v>
+        <v>558748030.4841375</v>
       </c>
       <c r="AU4">
-        <v>2250428935.037331</v>
+        <v>580840945.1227449</v>
       </c>
       <c r="AV4">
-        <v>2331045603.786454</v>
+        <v>603011331.4192002</v>
       </c>
       <c r="AW4">
-        <v>2413127214.604305</v>
+        <v>626353080.5978327</v>
       </c>
       <c r="AX4">
-        <v>2496711550.826933</v>
+        <v>649121751.0623648</v>
       </c>
       <c r="AY4">
-        <v>2581660634.21871</v>
+        <v>670766445.1336954</v>
       </c>
       <c r="AZ4">
-        <v>2667956333.653317</v>
+        <v>690909789.4521295</v>
       </c>
       <c r="BA4">
-        <v>2755631970.328239</v>
+        <v>709936760.9673716</v>
       </c>
       <c r="BB4">
-        <v>2844765287.167513</v>
+        <v>727305971.6126305</v>
       </c>
       <c r="BC4">
-        <v>2935398232.525306</v>
+        <v>743966568.3208796</v>
       </c>
       <c r="BD4">
-        <v>3027527214.176806</v>
+        <v>759941846.6347904</v>
       </c>
       <c r="BE4">
-        <v>3121151822.165903</v>
+        <v>775373278.6522704</v>
       </c>
       <c r="BF4">
-        <v>3216280743.923032</v>
+        <v>790480861.7402676</v>
       </c>
       <c r="BG4">
-        <v>3312959003.795482</v>
+        <v>804997408.9180161</v>
       </c>
       <c r="BH4">
-        <v>3411236571.845395</v>
+        <v>819716251.8253596</v>
       </c>
       <c r="BI4">
-        <v>3511122598.547953</v>
+        <v>835032883.9895065</v>
       </c>
       <c r="BJ4">
-        <v>3612625371.69111</v>
+        <v>851277515.3277928</v>
       </c>
       <c r="BK4">
-        <v>3715751657.810937</v>
+        <v>868631230.871865</v>
       </c>
       <c r="BL4">
-        <v>3820525089.513681</v>
+        <v>887083313.4348974</v>
       </c>
       <c r="BM4">
-        <v>3926972546.839959</v>
+        <v>906817668.8973747</v>
       </c>
       <c r="BN4">
-        <v>4035077668.688496</v>
+        <v>927756003.1177205</v>
       </c>
       <c r="BO4">
-        <v>4144823143.832179</v>
+        <v>949740385.7973391</v>
       </c>
       <c r="BP4">
-        <v>4256200292.602626</v>
+        <v>972516863.2569999</v>
       </c>
       <c r="BQ4">
-        <v>4369292731.421631</v>
+        <v>995851004.1923777</v>
       </c>
       <c r="BR4">
-        <v>4484120282.864947</v>
+        <v>1019632322.537059</v>
       </c>
       <c r="BS4">
-        <v>4600681638.48561</v>
+        <v>1043714281.704466</v>
       </c>
       <c r="BT4">
-        <v>4718973329.893984</v>
+        <v>1067874271.376377</v>
       </c>
       <c r="BU4">
-        <v>4838985164.726841</v>
+        <v>1091785403.721849</v>
       </c>
       <c r="BV4">
-        <v>4960756770.033882</v>
+        <v>1115001241.944308</v>
       </c>
       <c r="BW4">
-        <v>5084304356.912779</v>
+        <v>1137557271.614384</v>
       </c>
       <c r="BX4">
-        <v>5209642852.645827</v>
+        <v>1159632579.138795</v>
       </c>
       <c r="BY4">
-        <v>5336788071.11324</v>
+        <v>1181422165.127687</v>
       </c>
       <c r="BZ4">
-        <v>5465745948.492899</v>
+        <v>1202911395.453012</v>
       </c>
       <c r="CA4">
-        <v>5596580136.872204</v>
+        <v>1223874091.110905</v>
       </c>
       <c r="CB4">
-        <v>5729315470.944327</v>
+        <v>1244540857.480062</v>
       </c>
       <c r="CC4">
-        <v>5863958203.36623</v>
+        <v>1264993825.296846</v>
       </c>
       <c r="CD4">
-        <v>6000516631.973186</v>
+        <v>1285353722.953605</v>
       </c>
       <c r="CE4">
-        <v>6138999779.923184</v>
+        <v>1305758267.42123</v>
       </c>
       <c r="CF4">
-        <v>6279480621.668721</v>
+        <v>1326174227.793195</v>
       </c>
       <c r="CG4">
-        <v>6421990371.868235</v>
+        <v>1347210034.692437</v>
       </c>
       <c r="CH4">
-        <v>6566532099.503457</v>
+        <v>1368989271.184385</v>
       </c>
       <c r="CI4">
-        <v>6713104341.132274</v>
+        <v>1391574898.558713</v>
       </c>
       <c r="CJ4">
-        <v>6861700179.540725</v>
+        <v>1414980562.374587</v>
       </c>
       <c r="CK4">
-        <v>7012357823.685518</v>
+        <v>1438581432.230844</v>
       </c>
       <c r="CL4">
-        <v>7165099742.500465</v>
+        <v>1462823346.293938</v>
       </c>
       <c r="CM4">
-        <v>7319918148.153585</v>
+        <v>1487562418.331265</v>
       </c>
       <c r="CN4">
-        <v>7476809005.364868</v>
+        <v>1512673808.553291</v>
       </c>
       <c r="CO4">
-        <v>7635769956.578618</v>
+        <v>1538059959.018325</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694915.880510496</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>2832563.676557926</v>
+        <v>3589421.166920232</v>
       </c>
       <c r="F5">
-        <v>3403096.694675317</v>
+        <v>4935239.371023273</v>
       </c>
       <c r="G5">
-        <v>3754253.187991125</v>
+        <v>6232473.44250174</v>
       </c>
       <c r="H5">
-        <v>4083823.227273447</v>
+        <v>7477307.772692468</v>
       </c>
       <c r="I5">
-        <v>4318779.806955459</v>
+        <v>9032697.059328049</v>
       </c>
       <c r="J5">
-        <v>4512782.839146279</v>
+        <v>10744074.41284996</v>
       </c>
       <c r="K5">
-        <v>4764659.656705697</v>
+        <v>12233501.35319157</v>
       </c>
       <c r="L5">
-        <v>5219987.359992336</v>
+        <v>13611921.63404283</v>
       </c>
       <c r="M5">
-        <v>5624028.351470366</v>
+        <v>15154451.05847861</v>
       </c>
       <c r="N5">
-        <v>6136261.541117026</v>
+        <v>16776338.42585121</v>
       </c>
       <c r="O5">
-        <v>6778989.388399585</v>
+        <v>18888523.0442134</v>
       </c>
       <c r="P5">
-        <v>10858274.5842878</v>
+        <v>35196377.84450945</v>
       </c>
       <c r="Q5">
-        <v>14957393.92959724</v>
+        <v>51530188.85111981</v>
       </c>
       <c r="R5">
-        <v>19080964.55296868</v>
+        <v>67896956.61797675</v>
       </c>
       <c r="S5">
-        <v>32043519.63327707</v>
+        <v>122106833.7457255</v>
       </c>
       <c r="T5">
-        <v>45040612.73752877</v>
+        <v>176367192.4341432</v>
       </c>
       <c r="U5">
-        <v>58077266.24579647</v>
+        <v>230688763.5901753</v>
       </c>
       <c r="V5">
-        <v>71158172.27194944</v>
+        <v>285084078.7275109</v>
       </c>
       <c r="W5">
-        <v>84287503.07248229</v>
+        <v>339568281.1899977</v>
       </c>
       <c r="X5">
-        <v>96888824.5245893</v>
+        <v>396958219.5014563</v>
       </c>
       <c r="Y5">
-        <v>109545295.3492542</v>
+        <v>454481076.4825837</v>
       </c>
       <c r="Z5">
-        <v>122260058.7960028</v>
+        <v>512170330.4145001</v>
       </c>
       <c r="AA5">
-        <v>135037157.9456189</v>
+        <v>570071531.9177331</v>
       </c>
       <c r="AB5">
-        <v>147882955.9241281</v>
+        <v>628246791.7292305</v>
       </c>
       <c r="AC5">
-        <v>150517643.5106776</v>
+        <v>645062548.865333</v>
       </c>
       <c r="AD5">
-        <v>153249168.1160432</v>
+        <v>662348914.2108413</v>
       </c>
       <c r="AE5">
-        <v>156104537.992736</v>
+        <v>680253289.9756615</v>
       </c>
       <c r="AF5">
-        <v>159122916.1053324</v>
+        <v>698964377.2501529</v>
       </c>
       <c r="AG5">
-        <v>162357545.7646107</v>
+        <v>718717015.572979</v>
       </c>
       <c r="AH5">
-        <v>163929897.6571702</v>
+        <v>725818000.9114137</v>
       </c>
       <c r="AI5">
-        <v>165868234.8934684</v>
+        <v>734376629.6054823</v>
       </c>
       <c r="AJ5">
-        <v>168264992.9518531</v>
+        <v>744719852.7784103</v>
       </c>
       <c r="AK5">
-        <v>171218293.4797683</v>
+        <v>757456169.8583103</v>
       </c>
       <c r="AL5">
-        <v>174825135.0539671</v>
+        <v>772999967.2550737</v>
       </c>
       <c r="AM5">
-        <v>179173194.4074793</v>
+        <v>797623382.6212467</v>
       </c>
       <c r="AN5">
-        <v>184331765.7903359</v>
+        <v>825727229.5036355</v>
       </c>
       <c r="AO5">
-        <v>190342539.2991884</v>
+        <v>857515976.4757391</v>
       </c>
       <c r="AP5">
-        <v>197211073.1477318</v>
+        <v>893054712.3160205</v>
       </c>
       <c r="AQ5">
-        <v>204900084.4942252</v>
+        <v>932236795.8900396</v>
       </c>
       <c r="AR5">
-        <v>213325885.8293114</v>
+        <v>982967005.986981</v>
       </c>
       <c r="AS5">
-        <v>222359070.3180182</v>
+        <v>1036549969.05223</v>
       </c>
       <c r="AT5">
-        <v>231830218.3181474</v>
+        <v>1092318493.174088</v>
       </c>
       <c r="AU5">
-        <v>241540576.9423299</v>
+        <v>1149470803.745166</v>
       </c>
       <c r="AV5">
-        <v>252589547.3013648</v>
+        <v>1207128381.150682</v>
       </c>
       <c r="AW5">
-        <v>263824570.8045744</v>
+        <v>1266803174.985651</v>
       </c>
       <c r="AX5">
-        <v>274682002.5834758</v>
+        <v>1325269839.686391</v>
       </c>
       <c r="AY5">
-        <v>285003270.1031032</v>
+        <v>1381825430.042869</v>
       </c>
       <c r="AZ5">
-        <v>294674431.0765141</v>
+        <v>1435939852.294307</v>
       </c>
       <c r="BA5">
-        <v>303632789.3538121</v>
+        <v>1487289606.687015</v>
       </c>
       <c r="BB5">
-        <v>311678443.3791019</v>
+        <v>1534378550.47204</v>
       </c>
       <c r="BC5">
-        <v>319044861.0614235</v>
+        <v>1578730416.109373</v>
       </c>
       <c r="BD5">
-        <v>325821349.5964856</v>
+        <v>1620685134.193154</v>
       </c>
       <c r="BE5">
-        <v>332135083.0734386</v>
+        <v>1660766694.209979</v>
       </c>
       <c r="BF5">
-        <v>338139332.3318925</v>
+        <v>1699639079.719241</v>
       </c>
       <c r="BG5">
-        <v>343811504.9477098</v>
+        <v>1737279625.742652</v>
       </c>
       <c r="BH5">
-        <v>349503534.4394259</v>
+        <v>1775231655.46874</v>
       </c>
       <c r="BI5">
-        <v>355365039.358879</v>
+        <v>1814234299.184659</v>
       </c>
       <c r="BJ5">
-        <v>361522546.7137805</v>
+        <v>1854946630.384641</v>
       </c>
       <c r="BK5">
-        <v>368074542.565882</v>
+        <v>1897914007.640476</v>
       </c>
       <c r="BL5">
-        <v>374948483.214532</v>
+        <v>1943441538.427691</v>
       </c>
       <c r="BM5">
-        <v>382326049.0892161</v>
+        <v>1991898682.138722</v>
       </c>
       <c r="BN5">
-        <v>390220432.6934983</v>
+        <v>2043398877.886525</v>
       </c>
       <c r="BO5">
-        <v>398620024.4354506</v>
+        <v>2097907334.567188</v>
       </c>
       <c r="BP5">
-        <v>407490838.1939296</v>
+        <v>2155250538.926133</v>
       </c>
       <c r="BQ5">
-        <v>416680643.2139013</v>
+        <v>2215157325.560538</v>
       </c>
       <c r="BR5">
-        <v>426218333.8013591</v>
+        <v>2277209777.666221</v>
       </c>
       <c r="BS5">
-        <v>436021694.5473724</v>
+        <v>2340943785.672394</v>
       </c>
       <c r="BT5">
-        <v>446000339.3653466</v>
+        <v>2405855665.76708</v>
       </c>
       <c r="BU5">
-        <v>456060312.2330467</v>
+        <v>2471433938.083238</v>
       </c>
       <c r="BV5">
-        <v>466012691.1827523</v>
+        <v>2536971136.448174</v>
       </c>
       <c r="BW5">
-        <v>475867590.5357835</v>
+        <v>2602251874.550764</v>
       </c>
       <c r="BX5">
-        <v>485550354.4999862</v>
+        <v>2666919506.447254</v>
       </c>
       <c r="BY5">
-        <v>495002604.9686761</v>
+        <v>2730715170.058396</v>
       </c>
       <c r="BZ5">
-        <v>504186159.8875677</v>
+        <v>2793489821.276943</v>
       </c>
       <c r="CA5">
-        <v>512984502.9988249</v>
+        <v>2854817381.778174</v>
       </c>
       <c r="CB5">
-        <v>521506808.3451471</v>
+        <v>2915163691.706644</v>
       </c>
       <c r="CC5">
-        <v>529783299.6238217</v>
+        <v>2974702911.813104</v>
       </c>
       <c r="CD5">
-        <v>537863035.5156122</v>
+        <v>3033691644.852293</v>
       </c>
       <c r="CE5">
-        <v>545809037.6076754</v>
+        <v>3092447435.435694</v>
       </c>
       <c r="CF5">
-        <v>553578528.1460036</v>
+        <v>3150653751.887017</v>
       </c>
       <c r="CG5">
-        <v>561359029.6025139</v>
+        <v>3209345730.612784</v>
       </c>
       <c r="CH5">
-        <v>569220845.1113827</v>
+        <v>3268873893.331306</v>
       </c>
       <c r="CI5">
-        <v>577226463.705415</v>
+        <v>3329552605.561515</v>
       </c>
       <c r="CJ5">
-        <v>585427027.0150987</v>
+        <v>3391642082.540682</v>
       </c>
       <c r="CK5">
-        <v>593704129.8508192</v>
+        <v>3454282924.472111</v>
       </c>
       <c r="CL5">
-        <v>602236038.0638013</v>
+        <v>3518645322.065693</v>
       </c>
       <c r="CM5">
-        <v>611029999.1625526</v>
+        <v>3584769299.878293</v>
       </c>
       <c r="CN5">
-        <v>620078808.1878039</v>
+        <v>3652619472.527709</v>
       </c>
       <c r="CO5">
-        <v>629362321.7913034</v>
+        <v>3722091891.819327</v>
       </c>
     </row>
   </sheetData>
